--- a/publication/analyses/outputs/rigid_transformations/df_icp_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/df_icp_gdpt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,45 +529,45 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.666849232695069</v>
+        <v>0.3549459785785107</v>
       </c>
       <c r="F2" t="n">
-        <v>1.494395191150223</v>
+        <v>0.7959570218830383</v>
       </c>
       <c r="G2" t="n">
-        <v>1.305547152540214</v>
+        <v>-0.914336161756296</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3903527302858265</v>
+        <v>-0.07801957530404025</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.36521344529589</v>
+        <v>-47.39185267175505</v>
       </c>
       <c r="J2" t="n">
-        <v>0.706773803262008</v>
+        <v>0.3718698746153575</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8374054939469892</v>
+        <v>0.5137432120314358</v>
       </c>
       <c r="L2" t="n">
-        <v>1.095799785668004</v>
+        <v>0.6342076091902544</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01609045712623</v>
+        <v>0.4809659958147045</v>
       </c>
       <c r="N2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>88</v>
       </c>
       <c r="P2" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -579,45 +579,45 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6895878832206781</v>
+        <v>0.4382175154635121</v>
       </c>
       <c r="F3" t="n">
-        <v>1.369620314091616</v>
+        <v>1.173469652911568</v>
       </c>
       <c r="G3" t="n">
-        <v>1.116577108432693</v>
+        <v>-1.098705037264267</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3910719667284752</v>
+        <v>0.3606567819545603</v>
       </c>
       <c r="I3" t="n">
-        <v>-45.87254555764116</v>
+        <v>-46.36879130818787</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7635672834625966</v>
+        <v>0.572697342095408</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7426349731314156</v>
+        <v>0.8044910791835646</v>
       </c>
       <c r="L3" t="n">
-        <v>1.065148674923998</v>
+        <v>0.987516147781433</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8609983188601947</v>
+        <v>0.6339107856592526</v>
       </c>
       <c r="N3" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>88</v>
       </c>
       <c r="P3" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -629,45 +629,45 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8097179546548179</v>
+        <v>0.3363853122038966</v>
       </c>
       <c r="F4" t="n">
-        <v>1.676774756586217</v>
+        <v>0.9225381571297874</v>
       </c>
       <c r="G4" t="n">
-        <v>1.099686903236147</v>
+        <v>-1.028401510368383</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3837740952736226</v>
+        <v>0.007094976356029292</v>
       </c>
       <c r="I4" t="n">
-        <v>-45.99243391208867</v>
+        <v>-46.62369344338373</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7734164524499357</v>
+        <v>0.5311593432392301</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8937756102313609</v>
+        <v>0.6345690572007109</v>
       </c>
       <c r="L4" t="n">
-        <v>1.181950866307346</v>
+        <v>0.8275313506248143</v>
       </c>
       <c r="M4" t="n">
-        <v>1.189355175698273</v>
+        <v>0.4077603647900113</v>
       </c>
       <c r="N4" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>88</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -679,45 +679,45 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.007939198600601</v>
+        <v>0.5789670900319965</v>
       </c>
       <c r="F5" t="n">
-        <v>1.678964312540828</v>
+        <v>1.27447312251944</v>
       </c>
       <c r="G5" t="n">
-        <v>1.266791466123152</v>
+        <v>-0.8302789929519463</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2544180939244711</v>
+        <v>-0.1245784730442097</v>
       </c>
       <c r="I5" t="n">
-        <v>-41.87341169649109</v>
+        <v>-41.55578453578897</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9468482291334663</v>
+        <v>0.5539004304602768</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8644362137466426</v>
+        <v>0.8669928053829333</v>
       </c>
       <c r="L5" t="n">
-        <v>1.282096539520255</v>
+        <v>1.028825646769096</v>
       </c>
       <c r="M5" t="n">
-        <v>1.084043184626964</v>
+        <v>0.7521964693978488</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>88</v>
       </c>
       <c r="P5" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -729,45 +729,45 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1.050270813178486</v>
+        <v>0.5620772714299848</v>
       </c>
       <c r="F6" t="n">
-        <v>1.935592166839583</v>
+        <v>1.225496918368271</v>
       </c>
       <c r="G6" t="n">
-        <v>1.206096993377514</v>
+        <v>-0.8722565386492533</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3023635808488052</v>
+        <v>-0.1444441027547327</v>
       </c>
       <c r="I6" t="n">
-        <v>-41.63894067082409</v>
+        <v>-41.87097262112276</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9791891244052251</v>
+        <v>0.4820805473954065</v>
       </c>
       <c r="K6" t="n">
-        <v>1.082904286292224</v>
+        <v>0.7816332302647016</v>
       </c>
       <c r="L6" t="n">
-        <v>1.459963367562194</v>
+        <v>0.9183420717962815</v>
       </c>
       <c r="M6" t="n">
-        <v>1.270835946024234</v>
+        <v>0.8114742978671656</v>
       </c>
       <c r="N6" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="O6" t="n">
         <v>88</v>
       </c>
       <c r="P6" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -779,45 +779,45 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>1.036219912799752</v>
+        <v>0.3849601438389562</v>
       </c>
       <c r="F7" t="n">
-        <v>1.738227412842492</v>
+        <v>1.03697307559365</v>
       </c>
       <c r="G7" t="n">
-        <v>1.163311893026105</v>
+        <v>-1.038827783465536</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2277406724361413</v>
+        <v>0.01279919897223181</v>
       </c>
       <c r="I7" t="n">
-        <v>-42.04082727448597</v>
+        <v>-42.21601222120631</v>
       </c>
       <c r="J7" t="n">
-        <v>1.048991064323443</v>
+        <v>0.3994578327433809</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8442343931262054</v>
+        <v>0.5117326163341137</v>
       </c>
       <c r="L7" t="n">
-        <v>1.346519202821705</v>
+        <v>0.6491816623720945</v>
       </c>
       <c r="M7" t="n">
-        <v>1.099236360019733</v>
+        <v>0.8086261984044738</v>
       </c>
       <c r="N7" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
         <v>88</v>
       </c>
       <c r="P7" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -829,45 +829,45 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1.303850057869703</v>
+        <v>0.5760826759943259</v>
       </c>
       <c r="F8" t="n">
-        <v>2.292039226877575</v>
+        <v>1.130820432835218</v>
       </c>
       <c r="G8" t="n">
-        <v>1.207857414081502</v>
+        <v>-0.9889116060697916</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6832450527676315</v>
+        <v>0.1274087193174296</v>
       </c>
       <c r="I8" t="n">
-        <v>-37.77043970810617</v>
+        <v>-36.60159865667318</v>
       </c>
       <c r="J8" t="n">
-        <v>1.025002720365941</v>
+        <v>0.5093333726466009</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9582151142302999</v>
+        <v>0.7176758231003754</v>
       </c>
       <c r="L8" t="n">
-        <v>1.403141754028069</v>
+        <v>0.8800449258727435</v>
       </c>
       <c r="M8" t="n">
-        <v>1.812356762794931</v>
+        <v>0.7101237777762862</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" t="n">
         <v>88</v>
       </c>
       <c r="P8" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -879,45 +879,45 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>1.278103969774626</v>
+        <v>0.5345163809733063</v>
       </c>
       <c r="F9" t="n">
-        <v>2.111191097665022</v>
+        <v>1.04058351037069</v>
       </c>
       <c r="G9" t="n">
-        <v>1.287424012819486</v>
+        <v>-1.01467287344343</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5030145878989174</v>
+        <v>-0.007096171721514111</v>
       </c>
       <c r="I9" t="n">
-        <v>-37.47511861943416</v>
+        <v>-36.02462289773577</v>
       </c>
       <c r="J9" t="n">
-        <v>1.011277939825594</v>
+        <v>0.4569146205997267</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8957123149672209</v>
+        <v>0.6945466554269638</v>
       </c>
       <c r="L9" t="n">
-        <v>1.350919547109241</v>
+        <v>0.831363955847602</v>
       </c>
       <c r="M9" t="n">
-        <v>1.622388433174456</v>
+        <v>0.6258178768402795</v>
       </c>
       <c r="N9" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
         <v>88</v>
       </c>
       <c r="P9" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -929,45 +929,45 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1.177737666801409</v>
+        <v>0.6139297844224341</v>
       </c>
       <c r="F10" t="n">
-        <v>2.247480960959654</v>
+        <v>1.117955773704583</v>
       </c>
       <c r="G10" t="n">
-        <v>1.20658786899088</v>
+        <v>-1.047325319340189</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6592800625528525</v>
+        <v>0.1332000049149542</v>
       </c>
       <c r="I10" t="n">
-        <v>-36.46447558670618</v>
+        <v>-36.54057479186361</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9954348738141853</v>
+        <v>0.4613480101850661</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8672444668008231</v>
+        <v>0.7222123197207035</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32022859884268</v>
+        <v>0.8569904440879602</v>
       </c>
       <c r="M10" t="n">
-        <v>1.818836748219552</v>
+        <v>0.7179084138671753</v>
       </c>
       <c r="N10" t="n">
+        <v>22</v>
+      </c>
+      <c r="O10" t="n">
+        <v>88</v>
+      </c>
+      <c r="P10" t="n">
         <v>27</v>
-      </c>
-      <c r="O10" t="n">
-        <v>88</v>
-      </c>
-      <c r="P10" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -979,45 +979,45 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>1.023613219183781</v>
+        <v>0.6549752830798304</v>
       </c>
       <c r="F11" t="n">
-        <v>1.500523850198177</v>
+        <v>1.098962578916129</v>
       </c>
       <c r="G11" t="n">
-        <v>1.59326105168202</v>
+        <v>-1.015769661395893</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4901128221515023</v>
+        <v>0.07145916410138398</v>
       </c>
       <c r="I11" t="n">
-        <v>-32.06690138372089</v>
+        <v>-31.39580492491329</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5983408829086135</v>
+        <v>0.3787350070313449</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7551781443603205</v>
+        <v>0.5417115160970059</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9634862956365057</v>
+        <v>0.6609777395821658</v>
       </c>
       <c r="M11" t="n">
-        <v>1.150332987936171</v>
+        <v>0.8779676404257699</v>
       </c>
       <c r="N11" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O11" t="n">
         <v>88</v>
       </c>
       <c r="P11" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1029,45 +1029,45 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>1.022318663943317</v>
+        <v>0.7039449554887844</v>
       </c>
       <c r="F12" t="n">
-        <v>1.512234958013968</v>
+        <v>1.186890134675989</v>
       </c>
       <c r="G12" t="n">
-        <v>1.637831611153786</v>
+        <v>-1.066174902349303</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4342889453263297</v>
+        <v>0.1003466863201083</v>
       </c>
       <c r="I12" t="n">
-        <v>-32.40155765125441</v>
+        <v>-31.20014237308415</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6063040555518309</v>
+        <v>0.4213636582129575</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8051626401653883</v>
+        <v>0.53733104021142</v>
       </c>
       <c r="L12" t="n">
-        <v>1.007914423399475</v>
+        <v>0.6828411083387501</v>
       </c>
       <c r="M12" t="n">
-        <v>1.127369985117052</v>
+        <v>0.9707915391853471</v>
       </c>
       <c r="N12" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="O12" t="n">
         <v>88</v>
       </c>
       <c r="P12" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1079,45 +1079,45 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>1.060604755402365</v>
+        <v>0.8437376340231114</v>
       </c>
       <c r="F13" t="n">
-        <v>1.564918553934997</v>
+        <v>1.301958006238842</v>
       </c>
       <c r="G13" t="n">
-        <v>1.460559660947126</v>
+        <v>-0.8886017277505402</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5971607930220557</v>
+        <v>-0.02643584313364045</v>
       </c>
       <c r="I13" t="n">
-        <v>-31.31713338818622</v>
+        <v>-31.21887124678414</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6111162549014092</v>
+        <v>0.5598550474649444</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8318908923442091</v>
+        <v>0.6891169885470165</v>
       </c>
       <c r="L13" t="n">
-        <v>1.032233274880232</v>
+        <v>0.8878738075177598</v>
       </c>
       <c r="M13" t="n">
-        <v>1.176207697084152</v>
+        <v>0.9522472115650485</v>
       </c>
       <c r="N13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O13" t="n">
         <v>88</v>
       </c>
       <c r="P13" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1129,45 +1129,45 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>1.009953733923099</v>
+        <v>0.5558557570850843</v>
       </c>
       <c r="F14" t="n">
-        <v>1.330415252743457</v>
+        <v>0.8875934801727918</v>
       </c>
       <c r="G14" t="n">
-        <v>1.537309750099553</v>
+        <v>-0.745556358303304</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6502476472570606</v>
+        <v>-0.1631105418598509</v>
       </c>
       <c r="I14" t="n">
-        <v>-28.26891437513206</v>
+        <v>-26.74024974645089</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7451199831562263</v>
+        <v>0.4405458633847688</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7211524936397183</v>
+        <v>0.4798148978061856</v>
       </c>
       <c r="L14" t="n">
-        <v>1.036949713525935</v>
+        <v>0.6513854418868997</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8335106696082943</v>
+        <v>0.6029255278581226</v>
       </c>
       <c r="N14" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O14" t="n">
         <v>88</v>
       </c>
       <c r="P14" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1179,45 +1179,45 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>1.023243944749936</v>
+        <v>0.7566214994374548</v>
       </c>
       <c r="F15" t="n">
-        <v>1.324312556484269</v>
+        <v>1.121503128757359</v>
       </c>
       <c r="G15" t="n">
-        <v>1.594684316103042</v>
+        <v>-0.7474062563188113</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6762711836381072</v>
+        <v>-0.03424062622167412</v>
       </c>
       <c r="I15" t="n">
-        <v>-27.79806694618281</v>
+        <v>-27.25145816358214</v>
       </c>
       <c r="J15" t="n">
-        <v>0.704353482864531</v>
+        <v>0.4754902238890262</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6915473560539681</v>
+        <v>0.6274104521405433</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9870924852761411</v>
+        <v>0.78723238530261</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8828658860627363</v>
+        <v>0.7987705799184969</v>
       </c>
       <c r="N15" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O15" t="n">
         <v>88</v>
       </c>
       <c r="P15" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1229,45 +1229,45 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9968929823871088</v>
+        <v>0.4975310379727522</v>
       </c>
       <c r="F16" t="n">
-        <v>1.316816591874182</v>
+        <v>0.8526743045240706</v>
       </c>
       <c r="G16" t="n">
-        <v>1.552167468556604</v>
+        <v>-0.7301428373223757</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6246942060515721</v>
+        <v>-0.1351461454157743</v>
       </c>
       <c r="I16" t="n">
-        <v>-28.19517099118605</v>
+        <v>-26.56827599154333</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7161231297938898</v>
+        <v>0.3959420697787077</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7210034916026008</v>
+        <v>0.4665114005759363</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01620783894287</v>
+        <v>0.6118848008309804</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8374530223876551</v>
+        <v>0.5938438011023062</v>
       </c>
       <c r="N16" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="O16" t="n">
         <v>88</v>
       </c>
       <c r="P16" t="n">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1279,45 +1279,45 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6771882811135065</v>
+        <v>0.5507090059314708</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9378209102885179</v>
+        <v>0.9006109743513757</v>
       </c>
       <c r="G17" t="n">
-        <v>1.704342036207834</v>
+        <v>-0.6509844072307374</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9729574636181155</v>
+        <v>-0.1182410751204657</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.16605303091093</v>
+        <v>-21.48458934855179</v>
       </c>
       <c r="J17" t="n">
-        <v>0.410176786969365</v>
+        <v>0.2861926684727383</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6049455963260968</v>
+        <v>0.5010038043372314</v>
       </c>
       <c r="L17" t="n">
-        <v>0.730892722007032</v>
+        <v>0.5769844499186487</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5876256365166295</v>
+        <v>0.6915121630703773</v>
       </c>
       <c r="N17" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O17" t="n">
         <v>88</v>
       </c>
       <c r="P17" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1329,45 +1329,45 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7164955928511908</v>
+        <v>0.5966341432796367</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9795830859754525</v>
+        <v>0.9334791045418547</v>
       </c>
       <c r="G18" t="n">
-        <v>1.773218608804768</v>
+        <v>-0.6640376668921135</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9044568934925223</v>
+        <v>-0.1551547343279935</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.0114432389286</v>
+        <v>-21.43027678536861</v>
       </c>
       <c r="J18" t="n">
-        <v>0.44922911667064</v>
+        <v>0.2969417283811975</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6046116076418215</v>
+        <v>0.5317745409241298</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7532343561999223</v>
+        <v>0.6090636686169041</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6262755200143886</v>
+        <v>0.7074070159301679</v>
       </c>
       <c r="N18" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="O18" t="n">
         <v>88</v>
       </c>
       <c r="P18" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1379,45 +1379,45 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6679152389289228</v>
+        <v>0.5661221441367352</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9344116201477796</v>
+        <v>0.8753555090451066</v>
       </c>
       <c r="G19" t="n">
-        <v>1.667845755410497</v>
+        <v>-0.6430232928183841</v>
       </c>
       <c r="H19" t="n">
-        <v>0.962755213430512</v>
+        <v>-0.1401016111507261</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.09837788037284</v>
+        <v>-21.30247321380079</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4078024885313679</v>
+        <v>0.2904952406118487</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5938694535470178</v>
+        <v>0.4855839117722293</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7204053008609875</v>
+        <v>0.5658438125403124</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5950977048843067</v>
+        <v>0.6678832585305831</v>
       </c>
       <c r="N19" t="n">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="O19" t="n">
         <v>88</v>
       </c>
       <c r="P19" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -1429,45 +1429,45 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5931708539797657</v>
+        <v>0.2962641640197806</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7877639538472165</v>
+        <v>0.6541883766753452</v>
       </c>
       <c r="G20" t="n">
-        <v>1.852900163249046</v>
+        <v>-0.6713494049503765</v>
       </c>
       <c r="H20" t="n">
-        <v>1.058624235168168</v>
+        <v>0.05385325070596991</v>
       </c>
       <c r="I20" t="n">
-        <v>-17.38950197736368</v>
+        <v>-16.44800437194105</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3904479359487223</v>
+        <v>0.1885845848273855</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5284550365629676</v>
+        <v>0.1717005152783199</v>
       </c>
       <c r="L20" t="n">
-        <v>0.657049706152727</v>
+        <v>0.2550396294330706</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4345776462562448</v>
+        <v>0.6024261113163674</v>
       </c>
       <c r="N20" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="O20" t="n">
         <v>88</v>
       </c>
       <c r="P20" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1479,45 +1479,45 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6175430627757308</v>
+        <v>0.2941598461061322</v>
       </c>
       <c r="F21" t="n">
-        <v>0.817393334848787</v>
+        <v>0.639498546048045</v>
       </c>
       <c r="G21" t="n">
-        <v>1.835149980955464</v>
+        <v>-0.6568322087732668</v>
       </c>
       <c r="H21" t="n">
-        <v>1.007208916303625</v>
+        <v>0.02019309684891368</v>
       </c>
       <c r="I21" t="n">
-        <v>-17.49233194812802</v>
+        <v>-16.69144597469737</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4043205758114868</v>
+        <v>0.1793792775518964</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5368615814091976</v>
+        <v>0.180373098719271</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6720829454894066</v>
+        <v>0.2543843154690008</v>
       </c>
       <c r="M21" t="n">
-        <v>0.465227232906138</v>
+        <v>0.5867256688102968</v>
       </c>
       <c r="N21" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="O21" t="n">
         <v>88</v>
       </c>
       <c r="P21" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1529,45 +1529,45 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6082619716223997</v>
+        <v>0.2569453959560096</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8064998893334446</v>
+        <v>0.5830936667669637</v>
       </c>
       <c r="G22" t="n">
-        <v>1.864182770081186</v>
+        <v>-0.6605815765418583</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9878606052442933</v>
+        <v>-0.0009598124287890641</v>
       </c>
       <c r="I22" t="n">
-        <v>-17.35413233077111</v>
+        <v>-16.45935845407108</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3911188661244082</v>
+        <v>0.1932595697422463</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5252741199213918</v>
+        <v>0.1601113285244536</v>
       </c>
       <c r="L22" t="n">
-        <v>0.654894547616359</v>
+        <v>0.2509679238843555</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4706965083758509</v>
+        <v>0.5263205538499266</v>
       </c>
       <c r="N22" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="O22" t="n">
         <v>88</v>
       </c>
       <c r="P22" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1579,45 +1579,45 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6777898625296314</v>
+        <v>0.5812072012295486</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8699024298946103</v>
+        <v>0.8935898746076142</v>
       </c>
       <c r="G23" t="n">
-        <v>1.87488020085982</v>
+        <v>-0.5536278295254533</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9167959275830526</v>
+        <v>-0.08658090686913056</v>
       </c>
       <c r="I23" t="n">
-        <v>-12.6391721266475</v>
+        <v>-11.90833973675756</v>
       </c>
       <c r="J23" t="n">
-        <v>0.397408517559295</v>
+        <v>0.216215267853974</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5311979615378787</v>
+        <v>0.1419576950980585</v>
       </c>
       <c r="L23" t="n">
-        <v>0.663403952483458</v>
+        <v>0.258652332776488</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5626947959292116</v>
+        <v>0.8553372637448282</v>
       </c>
       <c r="N23" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="O23" t="n">
         <v>88</v>
       </c>
       <c r="P23" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1629,45 +1629,45 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7095001317700105</v>
+        <v>0.5956476585784845</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9064075404301454</v>
+        <v>0.8859740001612514</v>
       </c>
       <c r="G24" t="n">
-        <v>1.898804900827315</v>
+        <v>-0.5834504252231909</v>
       </c>
       <c r="H24" t="n">
-        <v>0.92357061672908</v>
+        <v>-0.08734256150398778</v>
       </c>
       <c r="I24" t="n">
-        <v>-12.52909146590841</v>
+        <v>-11.8602338907398</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4033334896587175</v>
+        <v>0.2192557470236556</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5462918495821715</v>
+        <v>0.1401789448021454</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6790527879334483</v>
+        <v>0.2602368520573983</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6003848270471656</v>
+        <v>0.8468923838322027</v>
       </c>
       <c r="N24" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="O24" t="n">
         <v>88</v>
       </c>
       <c r="P24" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1679,45 +1679,45 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6879196655845159</v>
+        <v>0.5930069946955514</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8823043321922066</v>
+        <v>0.8931372155116868</v>
       </c>
       <c r="G25" t="n">
-        <v>1.895182963477509</v>
+        <v>-0.5344640230869118</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9224053437815769</v>
+        <v>-0.09165385855163777</v>
       </c>
       <c r="I25" t="n">
-        <v>-12.63270111454639</v>
+        <v>-11.83472799032886</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3781241892076346</v>
+        <v>0.2177098356456089</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5301727006128517</v>
+        <v>0.1404031027760079</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6511996582762122</v>
+        <v>0.2590571439006619</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5953149919715103</v>
+        <v>0.8547417632981325</v>
       </c>
       <c r="N25" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="O25" t="n">
         <v>88</v>
       </c>
       <c r="P25" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -1729,45 +1729,45 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3980768037700168</v>
+        <v>0.4291419383791049</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7842255689277421</v>
+        <v>0.7919827940673553</v>
       </c>
       <c r="G26" t="n">
-        <v>1.846178633108025</v>
+        <v>-0.3077838200747465</v>
       </c>
       <c r="H26" t="n">
-        <v>1.155401581663853</v>
+        <v>-0.07382387983244598</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.388917063770728</v>
+        <v>-6.441166316320858</v>
       </c>
       <c r="J26" t="n">
-        <v>0.229810091529909</v>
+        <v>0.1425981394095801</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2736308375368069</v>
+        <v>0.115433670460232</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3573324970109485</v>
+        <v>0.1834643334247708</v>
       </c>
       <c r="M26" t="n">
-        <v>0.698085402755257</v>
+        <v>0.7704398642721794</v>
       </c>
       <c r="N26" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O26" t="n">
         <v>88</v>
       </c>
       <c r="P26" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -1779,45 +1779,45 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3857264815726282</v>
+        <v>0.4526406742282914</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7824698692087897</v>
+        <v>0.809179929764045</v>
       </c>
       <c r="G27" t="n">
-        <v>1.834143488679672</v>
+        <v>-0.3159155176579702</v>
       </c>
       <c r="H27" t="n">
-        <v>1.170499467260868</v>
+        <v>-0.09004273019530729</v>
       </c>
       <c r="I27" t="n">
-        <v>-6.426039175612878</v>
+        <v>-6.578668135819252</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2500358695476842</v>
+        <v>0.2011204686572007</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2864985185513199</v>
+        <v>0.1935075226492202</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3802621953239206</v>
+        <v>0.2790960484040046</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6838565339506701</v>
+        <v>0.7595245581929697</v>
       </c>
       <c r="N27" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="O27" t="n">
         <v>88</v>
       </c>
       <c r="P27" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1829,45 +1829,45 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.405331317783666</v>
+        <v>0.4514232023569213</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7986046266753356</v>
+        <v>0.8213716855847226</v>
       </c>
       <c r="G28" t="n">
-        <v>1.847830202764897</v>
+        <v>-0.2943599074487793</v>
       </c>
       <c r="H28" t="n">
-        <v>1.151813407360294</v>
+        <v>-0.08386782599063736</v>
       </c>
       <c r="I28" t="n">
-        <v>-6.355613125098317</v>
+        <v>-6.506597196831871</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2309656396250593</v>
+        <v>0.2012230752855854</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2780831815535729</v>
+        <v>0.209741118236186</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3614905013280019</v>
+        <v>0.2906579823544403</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7121053062552422</v>
+        <v>0.7682248259291704</v>
       </c>
       <c r="N28" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O28" t="n">
         <v>88</v>
       </c>
       <c r="P28" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1879,45 +1879,45 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E29" t="n">
-        <v>1.349545837166691</v>
+        <v>0.7490324263014055</v>
       </c>
       <c r="F29" t="n">
-        <v>2.291481627301687</v>
+        <v>1.353654988136753</v>
       </c>
       <c r="G29" t="n">
-        <v>1.889626210396955</v>
+        <v>-0.01137011876136285</v>
       </c>
       <c r="H29" t="n">
-        <v>1.115576813436348</v>
+        <v>-0.05818093507605226</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.381962709748053</v>
+        <v>-2.7469776014584</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2269481411350351</v>
+        <v>0.1245820929843021</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2594098635304256</v>
+        <v>0.2787295223110621</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3446722153895232</v>
+        <v>0.3053045111034264</v>
       </c>
       <c r="M29" t="n">
-        <v>2.265411466422747</v>
+        <v>1.318776320081389</v>
       </c>
       <c r="N29" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="O29" t="n">
         <v>88</v>
       </c>
       <c r="P29" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -1929,45 +1929,45 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E30" t="n">
-        <v>1.31915518922453</v>
+        <v>0.7565627421127689</v>
       </c>
       <c r="F30" t="n">
-        <v>2.268595023580286</v>
+        <v>1.351610901686217</v>
       </c>
       <c r="G30" t="n">
-        <v>1.907007464772676</v>
+        <v>-0.03392306975342763</v>
       </c>
       <c r="H30" t="n">
-        <v>1.09142891635139</v>
+        <v>-0.06628259807001768</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.031318171490679</v>
+        <v>-2.876617439191479</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2683054451200109</v>
+        <v>0.1229436719190029</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3131573641011199</v>
+        <v>0.2313023511469443</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4123776746767563</v>
+        <v>0.2619464145794551</v>
       </c>
       <c r="M30" t="n">
-        <v>2.230799864273222</v>
+        <v>1.325984956719342</v>
       </c>
       <c r="N30" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="O30" t="n">
         <v>88</v>
       </c>
       <c r="P30" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1979,45 +1979,45 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>1.299750163979981</v>
+        <v>0.7424406102824926</v>
       </c>
       <c r="F31" t="n">
-        <v>2.239854470834767</v>
+        <v>1.348359669442661</v>
       </c>
       <c r="G31" t="n">
-        <v>1.936237949940846</v>
+        <v>-0.01259735878801393</v>
       </c>
       <c r="H31" t="n">
-        <v>1.096210896316904</v>
+        <v>-0.08382693931469021</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.947818576012956</v>
+        <v>-3.012282688858323</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2399720641686821</v>
+        <v>0.1224582417686853</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3040122638670237</v>
+        <v>0.2713894351036124</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3873113065260694</v>
+        <v>0.2977385538739242</v>
       </c>
       <c r="M31" t="n">
-        <v>2.206113778198116</v>
+        <v>1.315076253194696</v>
       </c>
       <c r="N31" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="O31" t="n">
         <v>88</v>
       </c>
       <c r="P31" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -2029,45 +2029,45 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8166273748188113</v>
+        <v>1.461825734803462</v>
       </c>
       <c r="F32" t="n">
-        <v>1.217022577967613</v>
+        <v>2.32486032318477</v>
       </c>
       <c r="G32" t="n">
-        <v>1.887208768387893</v>
+        <v>0.00333770264217037</v>
       </c>
       <c r="H32" t="n">
-        <v>1.20055940150894</v>
+        <v>0.07296431951192517</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.307077021167299</v>
+        <v>1.040832915057063</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2427173208504925</v>
+        <v>0.1616233763200605</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2597322781347333</v>
+        <v>0.3285412322910614</v>
       </c>
       <c r="L32" t="n">
-        <v>0.355489175849138</v>
+        <v>0.3661440387175859</v>
       </c>
       <c r="M32" t="n">
-        <v>1.163946476921099</v>
+        <v>2.295847134551941</v>
       </c>
       <c r="N32" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O32" t="n">
         <v>88</v>
       </c>
       <c r="P32" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -2079,45 +2079,45 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>0.811964003294888</v>
+        <v>1.445097474703924</v>
       </c>
       <c r="F33" t="n">
-        <v>1.196538716579738</v>
+        <v>2.330647960222012</v>
       </c>
       <c r="G33" t="n">
-        <v>1.852923644622365</v>
+        <v>0.04693217233358382</v>
       </c>
       <c r="H33" t="n">
-        <v>1.219020118488231</v>
+        <v>0.01444463582907929</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.204770850252352</v>
+        <v>1.430913266486882</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2407035864615193</v>
+        <v>0.2653619905620968</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2413114374096554</v>
+        <v>0.323402866032949</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3408363630250625</v>
+        <v>0.4183376624132757</v>
       </c>
       <c r="M33" t="n">
-        <v>1.146967948076215</v>
+        <v>2.29279600372419</v>
       </c>
       <c r="N33" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="O33" t="n">
         <v>88</v>
       </c>
       <c r="P33" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -2129,45 +2129,45 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7982421817221674</v>
+        <v>1.54478485747955</v>
       </c>
       <c r="F34" t="n">
-        <v>1.203485150966355</v>
+        <v>2.443433538045782</v>
       </c>
       <c r="G34" t="n">
-        <v>1.910540752871555</v>
+        <v>0.0959905990974903</v>
       </c>
       <c r="H34" t="n">
-        <v>1.186237920807969</v>
+        <v>-0.031180023568254</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.267748113063278</v>
+        <v>1.284354890940188</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2419282744456132</v>
+        <v>0.1870268154370661</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2625431843471088</v>
+        <v>0.2111351627961959</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3570129040011745</v>
+        <v>0.2820586581927713</v>
       </c>
       <c r="M34" t="n">
-        <v>1.149312096418185</v>
+        <v>2.427099167357077</v>
       </c>
       <c r="N34" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="O34" t="n">
         <v>88</v>
       </c>
       <c r="P34" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -2179,45 +2179,45 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>0.388857519377443</v>
+        <v>0.5448200616932678</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7866661804175905</v>
+        <v>1.061326757155293</v>
       </c>
       <c r="G35" t="n">
-        <v>1.76267545529754</v>
+        <v>-0.2217916045208881</v>
       </c>
       <c r="H35" t="n">
-        <v>1.189190633053499</v>
+        <v>0.0781637094074199</v>
       </c>
       <c r="I35" t="n">
-        <v>2.632323620380359</v>
+        <v>6.815228083326256</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2502567712774146</v>
+        <v>0.1431172134655257</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2633783509275568</v>
+        <v>0.3103614673996687</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3633133734223329</v>
+        <v>0.3417700648632242</v>
       </c>
       <c r="M35" t="n">
-        <v>0.6977442741472647</v>
+        <v>1.004792370700137</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="O35" t="n">
         <v>88</v>
       </c>
       <c r="P35" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -2229,45 +2229,45 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4004554995507734</v>
+        <v>0.5396072373767538</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8196472173462153</v>
+        <v>1.051381441331243</v>
       </c>
       <c r="G36" t="n">
-        <v>1.709573944873455</v>
+        <v>-0.2167871618588606</v>
       </c>
       <c r="H36" t="n">
-        <v>1.074241655005608</v>
+        <v>0.00676524719540339</v>
       </c>
       <c r="I36" t="n">
-        <v>3.179127398236012</v>
+        <v>6.711180898864856</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2628826193232424</v>
+        <v>0.09958727714188866</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2412635024661451</v>
+        <v>0.2955925307795562</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3568127648564166</v>
+        <v>0.3119175692730344</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7379066416145745</v>
+        <v>1.004046993499079</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O36" t="n">
         <v>88</v>
       </c>
       <c r="P36" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -2279,45 +2279,45 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3862077410210735</v>
+        <v>0.5366720152806984</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8478741740270308</v>
+        <v>1.089606114142572</v>
       </c>
       <c r="G37" t="n">
-        <v>1.719163164665304</v>
+        <v>-0.2236365224765677</v>
       </c>
       <c r="H37" t="n">
-        <v>1.144832614161828</v>
+        <v>0.05466534233403308</v>
       </c>
       <c r="I37" t="n">
-        <v>2.667833540551905</v>
+        <v>6.752158140644573</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2699026727345594</v>
+        <v>0.09718927091678572</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2602053113595025</v>
+        <v>0.3140365602802954</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3749056638795342</v>
+        <v>0.3287319813678249</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7604842918647645</v>
+        <v>1.038834331547992</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="O37" t="n">
         <v>88</v>
       </c>
       <c r="P37" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -2329,45 +2329,45 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2534436404487646</v>
+        <v>0.4158223952650979</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4976056015527787</v>
+        <v>0.9530798923903856</v>
       </c>
       <c r="G38" t="n">
-        <v>1.87371819214809</v>
+        <v>-0.2741606599884676</v>
       </c>
       <c r="H38" t="n">
-        <v>1.187040343984279</v>
+        <v>-0.04889728470703858</v>
       </c>
       <c r="I38" t="n">
-        <v>11.42655792864089</v>
+        <v>11.89413585454039</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1328963439349438</v>
+        <v>0.228196749310828</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1729448378944095</v>
+        <v>0.2150975213546051</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2181085857677282</v>
+        <v>0.3135932079763905</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4472582917187038</v>
+        <v>0.9000114339218394</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="O38" t="n">
         <v>88</v>
       </c>
       <c r="P38" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -2379,45 +2379,45 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.229711875790869</v>
+        <v>0.3573433166117479</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4964359826516891</v>
+        <v>0.8726712435731296</v>
       </c>
       <c r="G39" t="n">
-        <v>1.858998941671246</v>
+        <v>-0.2545877140575499</v>
       </c>
       <c r="H39" t="n">
-        <v>1.077396481560868</v>
+        <v>-0.0608056754602444</v>
       </c>
       <c r="I39" t="n">
-        <v>10.93582044319329</v>
+        <v>11.92646102657909</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1457311346084628</v>
+        <v>0.2357657214550881</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1751691776721092</v>
+        <v>0.2130839895828599</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2278635653205507</v>
+        <v>0.3177896506020713</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4410520156068085</v>
+        <v>0.8127513994634313</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="O39" t="n">
         <v>88</v>
       </c>
       <c r="P39" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -2429,45 +2429,45 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2519698357496854</v>
+        <v>0.4248504697930984</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5060260963620968</v>
+        <v>0.9696488088355175</v>
       </c>
       <c r="G40" t="n">
-        <v>1.815466188215623</v>
+        <v>-0.3209056830876307</v>
       </c>
       <c r="H40" t="n">
-        <v>1.144466126231805</v>
+        <v>-0.02468566673564965</v>
       </c>
       <c r="I40" t="n">
-        <v>10.99828879160027</v>
+        <v>11.83403763416442</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1587065737317988</v>
+        <v>0.2441217222221639</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1427494730066605</v>
+        <v>0.2115648998982664</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2134600397951949</v>
+        <v>0.3230404342024058</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4587997619987119</v>
+        <v>0.9142558123121195</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="O40" t="n">
         <v>88</v>
       </c>
       <c r="P40" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -2479,45 +2479,45 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2170649633302213</v>
+        <v>0.3682700077469928</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6333133097538173</v>
+        <v>0.9024773626873163</v>
       </c>
       <c r="G41" t="n">
-        <v>1.697829059431001</v>
+        <v>-0.2655440190021068</v>
       </c>
       <c r="H41" t="n">
-        <v>1.185743563642575</v>
+        <v>-0.05552542769385127</v>
       </c>
       <c r="I41" t="n">
-        <v>14.38857409285688</v>
+        <v>16.01689166816648</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2258127969189849</v>
+        <v>0.3157527594471282</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2257634851873474</v>
+        <v>0.2803782170373906</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3193126532042104</v>
+        <v>0.4222697593808277</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5469233747198964</v>
+        <v>0.7975924024685462</v>
       </c>
       <c r="N41" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="O41" t="n">
         <v>88</v>
       </c>
       <c r="P41" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -2529,45 +2529,45 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1574865226660936</v>
+        <v>0.355628533251191</v>
       </c>
       <c r="F42" t="n">
-        <v>0.585893850813016</v>
+        <v>0.8781905005952253</v>
       </c>
       <c r="G42" t="n">
-        <v>1.659093667527543</v>
+        <v>-0.2964405073697094</v>
       </c>
       <c r="H42" t="n">
-        <v>1.141879590194264</v>
+        <v>-0.09627203972968346</v>
       </c>
       <c r="I42" t="n">
-        <v>13.8472465628824</v>
+        <v>15.91137243155988</v>
       </c>
       <c r="J42" t="n">
-        <v>0.22801851755473</v>
+        <v>0.3099103154054444</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2750013244847245</v>
+        <v>0.2813596723443149</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3572368581434584</v>
+        <v>0.4185781513844246</v>
       </c>
       <c r="M42" t="n">
-        <v>0.4643850036384609</v>
+        <v>0.7720174133523994</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="O42" t="n">
         <v>88</v>
       </c>
       <c r="P42" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -2579,940 +2579,1090 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2029444664743179</v>
+        <v>0.3935228002155656</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6623332167780568</v>
+        <v>0.9063009465350799</v>
       </c>
       <c r="G43" t="n">
-        <v>1.666226312612878</v>
+        <v>-0.2837132751105855</v>
       </c>
       <c r="H43" t="n">
-        <v>1.156203098726451</v>
+        <v>-0.05551754733488679</v>
       </c>
       <c r="I43" t="n">
-        <v>14.02468115919199</v>
+        <v>16.03864927072954</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1695632167734368</v>
+        <v>0.3184610469076708</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2273743683537562</v>
+        <v>0.2850740772122173</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2836384809344901</v>
+        <v>0.4274162700411941</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5985269435713061</v>
+        <v>0.7991850460278729</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="O43" t="n">
         <v>88</v>
       </c>
       <c r="P43" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2387246401990707</v>
+        <v>0.4241608209893593</v>
       </c>
       <c r="F44" t="n">
-        <v>0.557656196473473</v>
+        <v>0.9923463830363177</v>
       </c>
       <c r="G44" t="n">
-        <v>1.917695644623791</v>
+        <v>-0.2664594281922632</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5981134029734676</v>
+        <v>-0.1246996569597059</v>
       </c>
       <c r="I44" t="n">
-        <v>25.48520949694566</v>
+        <v>20.73116765744769</v>
       </c>
       <c r="J44" t="n">
-        <v>0.09823887982672778</v>
+        <v>0.4036889736766981</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3495876379197998</v>
+        <v>0.4185999205248485</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3631286192190796</v>
+        <v>0.5815416416143864</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4232233918030485</v>
+        <v>0.8040899595156094</v>
       </c>
       <c r="N44" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="O44" t="n">
         <v>88</v>
       </c>
       <c r="P44" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2481144225682602</v>
+        <v>0.3916414033646051</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5315657126370115</v>
+        <v>0.979815891093653</v>
       </c>
       <c r="G45" t="n">
-        <v>1.467446425263972</v>
+        <v>-0.2902343703439669</v>
       </c>
       <c r="H45" t="n">
-        <v>1.223945218251913</v>
+        <v>-0.1539420432587235</v>
       </c>
       <c r="I45" t="n">
-        <v>26.48229562801122</v>
+        <v>20.76172177161327</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2326614560676625</v>
+        <v>0.4093665409126059</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3994289438579758</v>
+        <v>0.4115099953310125</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4622497531973627</v>
+        <v>0.5804493441085811</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2624638499302935</v>
+        <v>0.7893780712457581</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="O45" t="n">
         <v>88</v>
       </c>
       <c r="P45" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3484561988230485</v>
+        <v>0.3875883226632204</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6277865721304958</v>
+        <v>0.9767768600039891</v>
       </c>
       <c r="G46" t="n">
-        <v>1.789832767325947</v>
+        <v>-0.2469823017200383</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8203030052397366</v>
+        <v>-0.135122312818055</v>
       </c>
       <c r="I46" t="n">
-        <v>25.89895935189928</v>
+        <v>20.76111719505843</v>
       </c>
       <c r="J46" t="n">
-        <v>0.169028006744868</v>
+        <v>0.4136433739311703</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3852924535248429</v>
+        <v>0.4162067963189575</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4207383293774604</v>
+        <v>0.5867954823439357</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4659348005247166</v>
+        <v>0.7808739310157703</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="O46" t="n">
         <v>88</v>
       </c>
       <c r="P46" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3924972355284779</v>
+        <v>0.4425192300018003</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8070487903575334</v>
+        <v>0.9975757963322529</v>
       </c>
       <c r="G47" t="n">
-        <v>1.422792891414986</v>
+        <v>-0.3650785886551375</v>
       </c>
       <c r="H47" t="n">
-        <v>1.168252627066579</v>
+        <v>-0.0762294163689603</v>
       </c>
       <c r="I47" t="n">
-        <v>30.74032641227032</v>
+        <v>26.08485379609737</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2842373741739986</v>
+        <v>0.4143930820511589</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3664260545611855</v>
+        <v>0.351784752588276</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4637444752647805</v>
+        <v>0.5435753292833047</v>
       </c>
       <c r="M47" t="n">
-        <v>0.6605064811786192</v>
+        <v>0.836470759095899</v>
       </c>
       <c r="N47" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O47" t="n">
         <v>88</v>
       </c>
       <c r="P47" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.566231170280747</v>
+        <v>0.4599437298525735</v>
       </c>
       <c r="F48" t="n">
-        <v>1.039178474814621</v>
+        <v>1.033929150908941</v>
       </c>
       <c r="G48" t="n">
-        <v>1.43853474557767</v>
+        <v>-0.3635107286885955</v>
       </c>
       <c r="H48" t="n">
-        <v>1.1585429026307</v>
+        <v>-0.08962156844995661</v>
       </c>
       <c r="I48" t="n">
-        <v>30.59335568527905</v>
+        <v>26.06227476493764</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2694413317974457</v>
+        <v>0.4170909969725133</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4936400361675723</v>
+        <v>0.3634395349220803</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5623869811689308</v>
+        <v>0.5532207473512749</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8738494068944216</v>
+        <v>0.873473693822364</v>
       </c>
       <c r="N48" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O48" t="n">
         <v>88</v>
       </c>
       <c r="P48" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3911261904182238</v>
+        <v>0.4163950024997555</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8071945242737798</v>
+        <v>1.002162521798305</v>
       </c>
       <c r="G49" t="n">
-        <v>1.448905194500298</v>
+        <v>-0.3282528347428979</v>
       </c>
       <c r="H49" t="n">
-        <v>1.097896830266961</v>
+        <v>-0.1017689884149604</v>
       </c>
       <c r="I49" t="n">
-        <v>30.77646071606128</v>
+        <v>26.20490483223613</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2718112256898874</v>
+        <v>0.366658446312509</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3608666263786997</v>
+        <v>0.3748834453733703</v>
       </c>
       <c r="L49" t="n">
-        <v>0.4517809916817915</v>
+        <v>0.5243815537061842</v>
       </c>
       <c r="M49" t="n">
-        <v>0.668922219374291</v>
+        <v>0.8540220759616524</v>
       </c>
       <c r="N49" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O49" t="n">
         <v>88</v>
       </c>
       <c r="P49" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5693194654872927</v>
+        <v>0.4292002897461203</v>
       </c>
       <c r="F50" t="n">
-        <v>1.194550751250645</v>
+        <v>1.077437143773793</v>
       </c>
       <c r="G50" t="n">
-        <v>1.426290221615659</v>
+        <v>-0.3754287958482223</v>
       </c>
       <c r="H50" t="n">
-        <v>1.130965122413272</v>
+        <v>-0.1012226387322812</v>
       </c>
       <c r="I50" t="n">
-        <v>35.86298041545037</v>
+        <v>31.10323385383408</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4620314831699422</v>
+        <v>0.3774916422590844</v>
       </c>
       <c r="K50" t="n">
-        <v>0.507027784522033</v>
+        <v>0.4149194347655669</v>
       </c>
       <c r="L50" t="n">
-        <v>0.685966665164961</v>
+        <v>0.5609439163781332</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9779576839495366</v>
+        <v>0.9198982125548846</v>
       </c>
       <c r="N50" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O50" t="n">
         <v>88</v>
       </c>
       <c r="P50" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5243914704541793</v>
+        <v>0.4700418398194048</v>
       </c>
       <c r="F51" t="n">
-        <v>1.124649117639471</v>
+        <v>1.154018187442531</v>
       </c>
       <c r="G51" t="n">
-        <v>1.50168542188726</v>
+        <v>-0.4283578815232545</v>
       </c>
       <c r="H51" t="n">
-        <v>1.075071155265448</v>
+        <v>-0.0875544397844692</v>
       </c>
       <c r="I51" t="n">
-        <v>36.00470357624555</v>
+        <v>31.04301286656235</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4155966485980205</v>
+        <v>0.3976595614515642</v>
       </c>
       <c r="K51" t="n">
-        <v>0.537605459284631</v>
+        <v>0.4207087417892363</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6795146828277853</v>
+        <v>0.5789032494568784</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8961559203780974</v>
+        <v>0.9983130795077775</v>
       </c>
       <c r="N51" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O51" t="n">
         <v>88</v>
       </c>
       <c r="P51" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8096057334015068</v>
+        <v>0.4333218960139422</v>
       </c>
       <c r="F52" t="n">
-        <v>1.38509754937718</v>
+        <v>1.077483912520941</v>
       </c>
       <c r="G52" t="n">
-        <v>1.494798007602412</v>
+        <v>-0.3325503085948753</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9361795388225573</v>
+        <v>-0.1331568553146667</v>
       </c>
       <c r="I52" t="n">
-        <v>35.90007985417346</v>
+        <v>31.16426159206937</v>
       </c>
       <c r="J52" t="n">
-        <v>0.479147467289207</v>
+        <v>0.4161688244868345</v>
       </c>
       <c r="K52" t="n">
-        <v>0.776548763434001</v>
+        <v>0.4160690313483402</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9124748091868278</v>
+        <v>0.5884810356518719</v>
       </c>
       <c r="M52" t="n">
-        <v>1.042058032880206</v>
+        <v>0.9025860914170639</v>
       </c>
       <c r="N52" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O52" t="n">
         <v>88</v>
       </c>
       <c r="P52" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9405776065997368</v>
+        <v>0.4395498481857806</v>
       </c>
       <c r="F53" t="n">
-        <v>1.466684188392421</v>
+        <v>1.213973319282951</v>
       </c>
       <c r="G53" t="n">
-        <v>1.457330307883069</v>
+        <v>-0.3778327262781431</v>
       </c>
       <c r="H53" t="n">
-        <v>1.206198446366727</v>
+        <v>-0.127476330200011</v>
       </c>
       <c r="I53" t="n">
-        <v>40.64864192199815</v>
+        <v>36.45560337367052</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4599121536509849</v>
+        <v>0.4161887569233402</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6602839714134217</v>
+        <v>0.504984543213692</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8046701883264767</v>
+        <v>0.654387095131113</v>
       </c>
       <c r="M53" t="n">
-        <v>1.226241573467048</v>
+        <v>1.022501222325266</v>
       </c>
       <c r="N53" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O53" t="n">
         <v>88</v>
       </c>
       <c r="P53" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5912026629430235</v>
+        <v>0.4484312569717208</v>
       </c>
       <c r="F54" t="n">
-        <v>1.190563022688169</v>
+        <v>1.234958755139001</v>
       </c>
       <c r="G54" t="n">
-        <v>1.612483080175139</v>
+        <v>-0.3088251014870593</v>
       </c>
       <c r="H54" t="n">
-        <v>1.057389538561836</v>
+        <v>-0.2252458949135416</v>
       </c>
       <c r="I54" t="n">
-        <v>40.37407810470033</v>
+        <v>36.13697690178748</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3958630090940112</v>
+        <v>0.4755671508713887</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5754910002795232</v>
+        <v>0.4736301867174922</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6984965378380135</v>
+        <v>0.6711852715591847</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9641280504272949</v>
+        <v>1.03664529041368</v>
       </c>
       <c r="N54" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O54" t="n">
         <v>88</v>
       </c>
       <c r="P54" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8688190769745174</v>
+        <v>0.5331612277880413</v>
       </c>
       <c r="F55" t="n">
-        <v>1.432141151755025</v>
+        <v>1.263257629345046</v>
       </c>
       <c r="G55" t="n">
-        <v>1.505234939563934</v>
+        <v>-0.4034573372173327</v>
       </c>
       <c r="H55" t="n">
-        <v>1.19507771678451</v>
+        <v>-0.1081495765360501</v>
       </c>
       <c r="I55" t="n">
-        <v>40.62977216929388</v>
+        <v>36.38562365761192</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5124944302460888</v>
+        <v>0.4426887454660742</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6533081244114385</v>
+        <v>0.5104033357590473</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8303385131711372</v>
+        <v>0.6756366556931982</v>
       </c>
       <c r="M55" t="n">
-        <v>1.166861702214563</v>
+        <v>1.06739634043882</v>
       </c>
       <c r="N55" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O55" t="n">
         <v>88</v>
       </c>
       <c r="P55" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7876609843893772</v>
+        <v>0.3458677333838358</v>
       </c>
       <c r="F56" t="n">
-        <v>1.488236523556148</v>
+        <v>1.099988253055099</v>
       </c>
       <c r="G56" t="n">
-        <v>1.308436827710693</v>
+        <v>-0.411387019574704</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9316324742784445</v>
+        <v>0.1417202238149571</v>
       </c>
       <c r="I56" t="n">
-        <v>44.35252462422586</v>
+        <v>40.63308037210494</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4501474726758544</v>
+        <v>0.487873354378245</v>
       </c>
       <c r="K56" t="n">
-        <v>1.077396398015765</v>
+        <v>0.4353235047926636</v>
       </c>
       <c r="L56" t="n">
-        <v>1.167653949427571</v>
+        <v>0.6538554608912039</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9227308407289649</v>
+        <v>0.8845604519319328</v>
       </c>
       <c r="N56" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O56" t="n">
         <v>88</v>
       </c>
       <c r="P56" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7253571933599815</v>
+        <v>0.3942926478895494</v>
       </c>
       <c r="F57" t="n">
-        <v>1.350297554095376</v>
+        <v>1.149574533403572</v>
       </c>
       <c r="G57" t="n">
-        <v>1.475162450889343</v>
+        <v>-0.3454334794301417</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8970619585340955</v>
+        <v>-0.08398227401903569</v>
       </c>
       <c r="I57" t="n">
-        <v>44.74966618620319</v>
+        <v>40.96235652734857</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4316918752522002</v>
+        <v>0.521413289115044</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7909578563341</v>
+        <v>0.4896742339892957</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9010950036790771</v>
+        <v>0.7152990098544607</v>
       </c>
       <c r="M57" t="n">
-        <v>1.005649680028056</v>
+        <v>0.8999271828048716</v>
       </c>
       <c r="N57" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="O57" t="n">
         <v>88</v>
       </c>
       <c r="P57" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7998310144122396</v>
+        <v>0.4564364846359181</v>
       </c>
       <c r="F58" t="n">
-        <v>1.505026703308546</v>
+        <v>1.293042340118078</v>
       </c>
       <c r="G58" t="n">
-        <v>1.326956337758588</v>
+        <v>-0.3683469642611499</v>
       </c>
       <c r="H58" t="n">
-        <v>0.862387638877351</v>
+        <v>-0.05078136450470083</v>
       </c>
       <c r="I58" t="n">
-        <v>44.53229574487075</v>
+        <v>40.93413781289988</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4614791773465051</v>
+        <v>0.520669129985882</v>
       </c>
       <c r="K58" t="n">
-        <v>1.087994127420958</v>
+        <v>0.5149376781937736</v>
       </c>
       <c r="L58" t="n">
-        <v>1.181818197705086</v>
+        <v>0.7322958113657688</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9318857898073811</v>
+        <v>1.065692891031142</v>
       </c>
       <c r="N58" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="O58" t="n">
         <v>88</v>
       </c>
       <c r="P58" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>51.90000000000001</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>51.90000000000001</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.695697360861305</v>
+        <v>0.3221379290508034</v>
       </c>
       <c r="F59" t="n">
-        <v>1.383630308009704</v>
+        <v>1.106844983623577</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8799993592139685</v>
+        <v>-0.4893510810109092</v>
       </c>
       <c r="H59" t="n">
-        <v>1.231179151528522</v>
+        <v>-0.2588717196640573</v>
       </c>
       <c r="I59" t="n">
-        <v>49.60679881061307</v>
+        <v>45.90657169280514</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6395836149166748</v>
+        <v>0.3513037668046201</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9644879369821943</v>
+        <v>0.6195023756998974</v>
       </c>
       <c r="L59" t="n">
-        <v>1.157283103243995</v>
+        <v>0.7121780185241129</v>
       </c>
       <c r="M59" t="n">
-        <v>1.13571063823841</v>
+        <v>0.8472946876404245</v>
       </c>
       <c r="N59" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O59" t="n">
         <v>88</v>
       </c>
       <c r="P59" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>51.90000000000001</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>51.90000000000001</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5628245732533707</v>
+        <v>0.41403703521494</v>
       </c>
       <c r="F60" t="n">
-        <v>1.213615881770419</v>
+        <v>1.115288307525335</v>
       </c>
       <c r="G60" t="n">
-        <v>1.100046213399423</v>
+        <v>-0.2734814722583678</v>
       </c>
       <c r="H60" t="n">
-        <v>1.027218156360277</v>
+        <v>-0.528496573006521</v>
       </c>
       <c r="I60" t="n">
-        <v>48.78567977972091</v>
+        <v>45.52728517456853</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6031858641549506</v>
+        <v>0.2728430772981809</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7528563702058557</v>
+        <v>0.6651631710235485</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9646895360041443</v>
+        <v>0.7189474173509796</v>
       </c>
       <c r="M60" t="n">
-        <v>1.208835473110627</v>
+        <v>0.8526327579839011</v>
       </c>
       <c r="N60" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O60" t="n">
         <v>88</v>
       </c>
       <c r="P60" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
+        <v>46.90000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>46.90000000000001</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5294139533866938</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.290968227984907</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.344162108911064</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.252645453594937</v>
+      </c>
+      <c r="I61" t="n">
+        <v>45.89433735807491</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3570512723246996</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5785515048977931</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.6798584079705036</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.097447725761175</v>
+      </c>
+      <c r="N61" t="n">
+        <v>14</v>
+      </c>
+      <c r="O61" t="n">
+        <v>88</v>
+      </c>
+      <c r="P61" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
         <v>51.90000000000001</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D62" t="n">
         <v>51.90000000000001</v>
       </c>
-      <c r="E61" t="n">
-        <v>0.7139336174957499</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1.428073451615956</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.9110768599688868</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1.269350514840141</v>
-      </c>
-      <c r="I61" t="n">
-        <v>49.89416857980014</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6942861342567063</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.9413421543407502</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.16968298600946</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.07297664266121</v>
-      </c>
-      <c r="N61" t="n">
-        <v>40</v>
-      </c>
-      <c r="O61" t="n">
-        <v>88</v>
-      </c>
-      <c r="P61" t="n">
-        <v>44</v>
+      <c r="E62" t="n">
+        <v>0.5375724801717777</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.168083228898058</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.1568388862842767</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.3768534691686227</v>
+      </c>
+      <c r="I62" t="n">
+        <v>51.73063231603977</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.4903238743656003</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.6335469396611666</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.8011237273523504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8500701165821332</v>
+      </c>
+      <c r="N62" t="n">
+        <v>13</v>
+      </c>
+      <c r="O62" t="n">
+        <v>88</v>
+      </c>
+      <c r="P62" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>51.90000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>51.90000000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5340275241015815</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.388806009623884</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.3066921398314548</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.04381372393601168</v>
+      </c>
+      <c r="I63" t="n">
+        <v>51.09227419774561</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.4292565136690651</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4989978906385978</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.6582249230993084</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.222915403034212</v>
+      </c>
+      <c r="N63" t="n">
+        <v>12</v>
+      </c>
+      <c r="O63" t="n">
+        <v>88</v>
+      </c>
+      <c r="P63" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>51.90000000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>51.90000000000001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4526139682404372</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.242081392706118</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.1462758266181368</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.2517331004241328</v>
+      </c>
+      <c r="I64" t="n">
+        <v>51.60984763257359</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3082193486678052</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.5706611988245206</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.648577960415743</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.05929826553698</v>
+      </c>
+      <c r="N64" t="n">
+        <v>12</v>
+      </c>
+      <c r="O64" t="n">
+        <v>88</v>
+      </c>
+      <c r="P64" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rigid_transformations/df_icp_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/df_icp_gdpt.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3549459785785107</v>
+        <v>0.354945969140062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7959570218830383</v>
+        <v>0.7959570145867249</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.914336161756296</v>
+        <v>-0.9143361287173661</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.07801957530404025</v>
+        <v>-0.07801957525271064</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.39185267175505</v>
+        <v>-47.39187009952746</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3718698746153575</v>
+        <v>0.3718698692733888</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5137432120314358</v>
+        <v>0.5137432126970948</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6342076091902544</v>
+        <v>0.6342076065971929</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4809659958147045</v>
+        <v>0.4809659871592866</v>
       </c>
       <c r="N2" t="n">
         <v>12</v>
@@ -579,31 +579,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4382175154635121</v>
+        <v>0.4382175143151841</v>
       </c>
       <c r="F3" t="n">
-        <v>1.173469652911568</v>
+        <v>1.173469653394175</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.098705037264267</v>
+        <v>-1.09870505863995</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3606567819545603</v>
+        <v>0.3606567722797536</v>
       </c>
       <c r="I3" t="n">
-        <v>-46.36879130818787</v>
+        <v>-46.36880872988871</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572697342095408</v>
+        <v>0.5726973489557757</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8044910791835646</v>
+        <v>0.8044910816104841</v>
       </c>
       <c r="L3" t="n">
-        <v>0.987516147781433</v>
+        <v>0.9875161537371326</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6339107856592526</v>
+        <v>0.6339107772748031</v>
       </c>
       <c r="N3" t="n">
         <v>13</v>
@@ -629,31 +629,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3363853122038966</v>
+        <v>0.3363853133407699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9225381571297874</v>
+        <v>0.9225381613000699</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.028401510368383</v>
+        <v>-1.028401527577785</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007094976356029292</v>
+        <v>0.00709496862037895</v>
       </c>
       <c r="I4" t="n">
-        <v>-46.62369344338373</v>
+        <v>-46.6237108729249</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5311593432392301</v>
+        <v>0.531159348861463</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6345690572007109</v>
+        <v>0.6345690591643803</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8275313506248143</v>
+        <v>0.8275313557392857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4077603647900113</v>
+        <v>0.4077603638451429</v>
       </c>
       <c r="N4" t="n">
         <v>11</v>
@@ -679,31 +679,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5789670900319965</v>
+        <v>0.5789670900626098</v>
       </c>
       <c r="F5" t="n">
-        <v>1.27447312251944</v>
+        <v>1.274473122515352</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8302789929519463</v>
+        <v>-0.8302789928229117</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1245784730442097</v>
+        <v>-0.1245784728860144</v>
       </c>
       <c r="I5" t="n">
-        <v>-41.55578453578897</v>
+        <v>-41.55578443231081</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5539004304602768</v>
+        <v>0.5539004304239243</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8669928053829333</v>
+        <v>0.8669928053483995</v>
       </c>
       <c r="L5" t="n">
-        <v>1.028825646769096</v>
+        <v>1.028825646720423</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7521964693978488</v>
+        <v>0.7521964694573597</v>
       </c>
       <c r="N5" t="n">
         <v>15</v>
@@ -729,31 +729,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5620772714299848</v>
+        <v>0.5620772714442076</v>
       </c>
       <c r="F6" t="n">
-        <v>1.225496918368271</v>
+        <v>1.225496918375596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8722565386492533</v>
+        <v>-0.8722565385003804</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1444441027547327</v>
+        <v>-0.1444441026162622</v>
       </c>
       <c r="I6" t="n">
-        <v>-41.87097262112276</v>
+        <v>-41.87097251763181</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4820805473954065</v>
+        <v>0.4820805473602369</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7816332302647016</v>
+        <v>0.7816332302397011</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9183420717962815</v>
+        <v>0.9183420717565407</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8114742978671656</v>
+        <v>0.8114742979232259</v>
       </c>
       <c r="N6" t="n">
         <v>18</v>
@@ -779,31 +779,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3849601438389562</v>
+        <v>0.3849601438406606</v>
       </c>
       <c r="F7" t="n">
-        <v>1.03697307559365</v>
+        <v>1.036973075578901</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.038827783465536</v>
+        <v>-1.038827783374472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01279919897223181</v>
+        <v>0.01279919903504378</v>
       </c>
       <c r="I7" t="n">
-        <v>-42.21601222120631</v>
+        <v>-42.21601211770624</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3994578327433809</v>
+        <v>0.3994578327304055</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5117326163341137</v>
+        <v>0.5117326163266911</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6491816623720945</v>
+        <v>0.6491816623582594</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8086261984044738</v>
+        <v>0.8086261983966427</v>
       </c>
       <c r="N7" t="n">
         <v>17</v>
@@ -829,31 +829,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5760826759943259</v>
+        <v>0.5760826761125375</v>
       </c>
       <c r="F8" t="n">
-        <v>1.130820432835218</v>
+        <v>1.130820432483882</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9889116060697916</v>
+        <v>-0.9889116031526441</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1274087193174296</v>
+        <v>0.1274087222179219</v>
       </c>
       <c r="I8" t="n">
-        <v>-36.60159865667318</v>
+        <v>-36.60159626627976</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5093333726466009</v>
+        <v>0.5093333723869246</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7176758231003754</v>
+        <v>0.7176758226535983</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8800449258727435</v>
+        <v>0.8800449253581074</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7101237777762862</v>
+        <v>0.7101237778546322</v>
       </c>
       <c r="N8" t="n">
         <v>22</v>
@@ -879,31 +879,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5345163809733063</v>
+        <v>0.5345163813132907</v>
       </c>
       <c r="F9" t="n">
-        <v>1.04058351037069</v>
+        <v>1.040583510270254</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.01467287344343</v>
+        <v>-1.014672867201341</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.007096171721514111</v>
+        <v>-0.007096167785789476</v>
       </c>
       <c r="I9" t="n">
-        <v>-36.02462289773577</v>
+        <v>-36.02462050667759</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4569146205997267</v>
+        <v>0.4569146204889243</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6945466554269638</v>
+        <v>0.69454665522396</v>
       </c>
       <c r="L9" t="n">
-        <v>0.831363955847602</v>
+        <v>0.83136395561711</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6258178768402795</v>
+        <v>0.6258178769794557</v>
       </c>
       <c r="N9" t="n">
         <v>22</v>
@@ -929,31 +929,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6139297844224341</v>
+        <v>0.6139297853531177</v>
       </c>
       <c r="F10" t="n">
-        <v>1.117955773704583</v>
+        <v>1.117955774610393</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.047325319340189</v>
+        <v>-1.047325315567548</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1332000049149542</v>
+        <v>0.1332000071309949</v>
       </c>
       <c r="I10" t="n">
-        <v>-36.54057479186361</v>
+        <v>-36.54057240119749</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4613480101850661</v>
+        <v>0.4613480097955876</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7222123197207035</v>
+        <v>0.7222123195106406</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8569904440879602</v>
+        <v>0.856990443701264</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7179084138671753</v>
+        <v>0.7179084157393532</v>
       </c>
       <c r="N10" t="n">
         <v>22</v>
@@ -979,31 +979,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6549752830798304</v>
+        <v>0.6549752830788127</v>
       </c>
       <c r="F11" t="n">
-        <v>1.098962578916129</v>
+        <v>1.098962578916078</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.015769661395893</v>
+        <v>-1.015769661406352</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07145916410138398</v>
+        <v>0.07145916409371011</v>
       </c>
       <c r="I11" t="n">
-        <v>-31.39580492491329</v>
+        <v>-31.39580492903724</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3787350070313449</v>
+        <v>0.3787350070323713</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5417115160970059</v>
+        <v>0.5417115160978301</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6609777395821658</v>
+        <v>0.6609777395834293</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8779676404257699</v>
+        <v>0.8779676404247946</v>
       </c>
       <c r="N11" t="n">
         <v>31</v>
@@ -1029,31 +1029,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7039449554887844</v>
+        <v>0.7039449554886136</v>
       </c>
       <c r="F12" t="n">
-        <v>1.186890134675989</v>
+        <v>1.186890134675683</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.066174902349303</v>
+        <v>-1.06617490236016</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1003466863201083</v>
+        <v>0.100346686311525</v>
       </c>
       <c r="I12" t="n">
-        <v>-31.20014237308415</v>
+        <v>-31.20014237720834</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4213636582129575</v>
+        <v>0.4213636582135898</v>
       </c>
       <c r="K12" t="n">
-        <v>0.53733104021142</v>
+        <v>0.5373310402121748</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6828411083387501</v>
+        <v>0.6828411083397343</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9707915391853471</v>
+        <v>0.9707915391843012</v>
       </c>
       <c r="N12" t="n">
         <v>30</v>
@@ -1079,31 +1079,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8437376340231114</v>
+        <v>0.8437376340222557</v>
       </c>
       <c r="F13" t="n">
-        <v>1.301958006238842</v>
+        <v>1.301958006238924</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.8886017277505402</v>
+        <v>-0.8886017277633869</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.02643584313364045</v>
+        <v>-0.02643584314159853</v>
       </c>
       <c r="I13" t="n">
-        <v>-31.21887124678414</v>
+        <v>-31.21887125090766</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5598550474649444</v>
+        <v>0.5598550474654566</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6891169885470165</v>
+        <v>0.6891169885477557</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8878738075177598</v>
+        <v>0.8878738075186564</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9522472115650485</v>
+        <v>0.9522472115642922</v>
       </c>
       <c r="N13" t="n">
         <v>32</v>
@@ -1129,31 +1129,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5558557570850843</v>
+        <v>0.5558557570852137</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8875934801727918</v>
+        <v>0.8875934801729566</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.745556358303304</v>
+        <v>-0.7455563582979607</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1631105418598509</v>
+        <v>-0.1631105418557581</v>
       </c>
       <c r="I14" t="n">
-        <v>-26.74024974645089</v>
+        <v>-26.74024974466309</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4405458633847688</v>
+        <v>0.4405458633849181</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4798148978061856</v>
+        <v>0.4798148978061388</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6513854418868997</v>
+        <v>0.6513854418869662</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6029255278581226</v>
+        <v>0.6029255278583541</v>
       </c>
       <c r="N14" t="n">
         <v>32</v>
@@ -1179,31 +1179,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7566214994374548</v>
+        <v>0.7566214994377325</v>
       </c>
       <c r="F15" t="n">
-        <v>1.121503128757359</v>
+        <v>1.121503128757621</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7474062563188113</v>
+        <v>-0.747406256314548</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.03424062622167412</v>
+        <v>-0.0342406262183772</v>
       </c>
       <c r="I15" t="n">
-        <v>-27.25145816358214</v>
+        <v>-27.2514581617947</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4754902238890262</v>
+        <v>0.4754902238891213</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6274104521405433</v>
+        <v>0.6274104521403328</v>
       </c>
       <c r="L15" t="n">
-        <v>0.78723238530261</v>
+        <v>0.7872323853024999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7987705799184969</v>
+        <v>0.7987705799189527</v>
       </c>
       <c r="N15" t="n">
         <v>37</v>
@@ -1229,31 +1229,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4975310379727522</v>
+        <v>0.4975310379727637</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8526743045240706</v>
+        <v>0.8526743045239266</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7301428373223757</v>
+        <v>-0.730142837317203</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1351461454157743</v>
+        <v>-0.135146145410431</v>
       </c>
       <c r="I16" t="n">
-        <v>-26.56827599154333</v>
+        <v>-26.56827598975567</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3959420697787077</v>
+        <v>0.3959420697786162</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4665114005759363</v>
+        <v>0.4665114005755486</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6118848008309804</v>
+        <v>0.6118848008306257</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5938438011023062</v>
+        <v>0.5938438011024927</v>
       </c>
       <c r="N16" t="n">
         <v>33</v>
@@ -1279,31 +1279,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5507090059314708</v>
+        <v>0.5507090058975214</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9006109743513757</v>
+        <v>0.900610974319009</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6509844072307374</v>
+        <v>-0.650984406837722</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1182410751204657</v>
+        <v>-0.1182410747300651</v>
       </c>
       <c r="I17" t="n">
-        <v>-21.48458934855179</v>
+        <v>-21.4845891837793</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2861926684727383</v>
+        <v>0.2861926684764913</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5010038043372314</v>
+        <v>0.5010038043309823</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5769844499186487</v>
+        <v>0.5769844499150841</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6915121630703773</v>
+        <v>0.6915121630311922</v>
       </c>
       <c r="N17" t="n">
         <v>30</v>
@@ -1329,31 +1329,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5966341432796367</v>
+        <v>0.5966341432495211</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9334791045418547</v>
+        <v>0.9334791045004791</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6640376668921135</v>
+        <v>-0.6640376664855125</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1551547343279935</v>
+        <v>-0.1551547339531112</v>
       </c>
       <c r="I18" t="n">
-        <v>-21.43027678536861</v>
+        <v>-21.43027662058122</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2969417283811975</v>
+        <v>0.2969417283729938</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5317745409241298</v>
+        <v>0.5317745409138849</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6090636686169041</v>
+        <v>0.6090636686039594</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7074070159301679</v>
+        <v>0.7074070158866806</v>
       </c>
       <c r="N18" t="n">
         <v>29</v>
@@ -1379,31 +1379,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5661221441367352</v>
+        <v>0.5661221441123984</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8753555090451066</v>
+        <v>0.8753555090258646</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6430232928183841</v>
+        <v>-0.6430232923253811</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1401016111507261</v>
+        <v>-0.140101610736906</v>
       </c>
       <c r="I19" t="n">
-        <v>-21.30247321380079</v>
+        <v>-21.30247304902539</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2904952406118487</v>
+        <v>0.2904952406492589</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4855839117722293</v>
+        <v>0.4855839117752546</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5658438125403124</v>
+        <v>0.5658438125621142</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6678832585305831</v>
+        <v>0.6678832584869157</v>
       </c>
       <c r="N19" t="n">
         <v>34</v>
@@ -1429,31 +1429,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2962641640197806</v>
+        <v>0.2962641640195036</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6541883766753452</v>
+        <v>0.6541883766749277</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6713494049503765</v>
+        <v>-0.6713494049570272</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05385325070596991</v>
+        <v>0.05385325069681812</v>
       </c>
       <c r="I20" t="n">
-        <v>-16.44800437194105</v>
+        <v>-16.44800437412341</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1885845848273855</v>
+        <v>0.188584584826806</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1717005152783199</v>
+        <v>0.1717005152782079</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2550396294330706</v>
+        <v>0.2550396294325666</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6024261113163674</v>
+        <v>0.6024261113160996</v>
       </c>
       <c r="N20" t="n">
         <v>37</v>
@@ -1479,31 +1479,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2941598461061322</v>
+        <v>0.2941598461059946</v>
       </c>
       <c r="F21" t="n">
-        <v>0.639498546048045</v>
+        <v>0.6394985460477263</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6568322087732668</v>
+        <v>-0.6568322087790648</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02019309684891368</v>
+        <v>0.02019309684135351</v>
       </c>
       <c r="I21" t="n">
-        <v>-16.69144597469737</v>
+        <v>-16.69144597687981</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1793792775518964</v>
+        <v>0.1793792775514148</v>
       </c>
       <c r="K21" t="n">
-        <v>0.180373098719271</v>
+        <v>0.1803730987193929</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2543843154690008</v>
+        <v>0.2543843154687477</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5867256688102968</v>
+        <v>0.5867256688100766</v>
       </c>
       <c r="N21" t="n">
         <v>37</v>
@@ -1529,31 +1529,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2569453959560096</v>
+        <v>0.2569453959562884</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5830936667669637</v>
+        <v>0.5830936667667898</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6605815765418583</v>
+        <v>-0.6605815765481111</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0009598124287890641</v>
+        <v>-0.0009598124367471428</v>
       </c>
       <c r="I22" t="n">
-        <v>-16.45935845407108</v>
+        <v>-16.4593584562536</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1932595697422463</v>
+        <v>0.1932595697417568</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1601113285244536</v>
+        <v>0.1601113285249041</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2509679238843555</v>
+        <v>0.250967923884266</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5263205538499266</v>
+        <v>0.5263205538497943</v>
       </c>
       <c r="N22" t="n">
         <v>35</v>
@@ -1579,31 +1579,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5812072012295486</v>
+        <v>0.5812072012555115</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8935898746076142</v>
+        <v>0.893589874708159</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.5536278295254533</v>
+        <v>-0.5536278281916225</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.08658090686913056</v>
+        <v>-0.08658090538347096</v>
       </c>
       <c r="I23" t="n">
-        <v>-11.90833973675756</v>
+        <v>-11.90833937678908</v>
       </c>
       <c r="J23" t="n">
-        <v>0.216215267853974</v>
+        <v>0.2162152680812632</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1419576950980585</v>
+        <v>0.1419576951432266</v>
       </c>
       <c r="L23" t="n">
-        <v>0.258652332776488</v>
+        <v>0.2586523329912758</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8553372637448282</v>
+        <v>0.855337263784983</v>
       </c>
       <c r="N23" t="n">
         <v>40</v>
@@ -1629,31 +1629,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5956476585784845</v>
+        <v>0.5956476585838593</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8859740001612514</v>
+        <v>0.8859740002580423</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.5834504252231909</v>
+        <v>-0.5834504238696923</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.08734256150398778</v>
+        <v>-0.08734256005379848</v>
       </c>
       <c r="I24" t="n">
-        <v>-11.8602338907398</v>
+        <v>-11.86023353074967</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2192557470236556</v>
+        <v>0.2192557472472153</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1401789448021454</v>
+        <v>0.140178944859502</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2602368520573983</v>
+        <v>0.2602368522766483</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8468923838322027</v>
+        <v>0.846892383866099</v>
       </c>
       <c r="N24" t="n">
         <v>39</v>
@@ -1679,31 +1679,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5930069946955514</v>
+        <v>0.5930069947034781</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8931372155116868</v>
+        <v>0.8931372156114277</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.5344640230869118</v>
+        <v>-0.5344640216917469</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.09165385855163777</v>
+        <v>-0.09165385711145291</v>
       </c>
       <c r="I25" t="n">
-        <v>-11.83472799032886</v>
+        <v>-11.83472763037075</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2177098356456089</v>
+        <v>0.2177098358855578</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1404031027760079</v>
+        <v>0.1404031028541536</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2590571439006619</v>
+        <v>0.2590571441446666</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8547417632981325</v>
+        <v>0.8547417633284047</v>
       </c>
       <c r="N25" t="n">
         <v>39</v>
@@ -1729,31 +1729,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4291419383791049</v>
+        <v>0.4291419383374862</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7919827940673553</v>
+        <v>0.7919827942146054</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.3077838200747465</v>
+        <v>-0.3077838172782776</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.07382387983244598</v>
+        <v>-0.07382387304335225</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.441166316320858</v>
+        <v>-6.441165251089267</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1425981394095801</v>
+        <v>0.1425981393051468</v>
       </c>
       <c r="K26" t="n">
-        <v>0.115433670460232</v>
+        <v>0.1154336710926389</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1834643334247708</v>
+        <v>0.183464333741503</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7704398642721794</v>
+        <v>0.7704398643481041</v>
       </c>
       <c r="N26" t="n">
         <v>44</v>
@@ -1779,31 +1779,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4526406742282914</v>
+        <v>0.4526406741286785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.809179929764045</v>
+        <v>0.8091799299537707</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3159155176579702</v>
+        <v>-0.3159155154473865</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.09004273019530729</v>
+        <v>-0.09004272353149645</v>
       </c>
       <c r="I27" t="n">
-        <v>-6.578668135819252</v>
+        <v>-6.578667070534206</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2011204686572007</v>
+        <v>0.2011204686239895</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1935075226492202</v>
+        <v>0.1935075232236655</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2790960484040046</v>
+        <v>0.2790960487783561</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7595245581929697</v>
+        <v>0.7595245582575323</v>
       </c>
       <c r="N27" t="n">
         <v>43</v>
@@ -1829,31 +1829,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4514232023569213</v>
+        <v>0.4514232023030478</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8213716855847226</v>
+        <v>0.8213716857466765</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2943599074487793</v>
+        <v>-0.2943599046598138</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.08386782599063736</v>
+        <v>-0.0838678194375575</v>
       </c>
       <c r="I28" t="n">
-        <v>-6.506597196831871</v>
+        <v>-6.506596131599762</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2012230752855854</v>
+        <v>0.2012230753344731</v>
       </c>
       <c r="K28" t="n">
-        <v>0.209741118236186</v>
+        <v>0.209741118643978</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2906579823544403</v>
+        <v>0.2906579826825513</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7682248259291704</v>
+        <v>0.7682248259782075</v>
       </c>
       <c r="N28" t="n">
         <v>43</v>
@@ -1879,31 +1879,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7490324263014055</v>
+        <v>0.7490324263022013</v>
       </c>
       <c r="F29" t="n">
-        <v>1.353654988136753</v>
+        <v>1.353654988137115</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01137011876136285</v>
+        <v>-0.01137011877062832</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.05818093507605226</v>
+        <v>-0.05818093510026756</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.7469776014584</v>
+        <v>-2.746977605395817</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1245820929843021</v>
+        <v>0.124582092983248</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2787295223110621</v>
+        <v>0.2787295223114926</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3053045111034264</v>
+        <v>0.3053045111033892</v>
       </c>
       <c r="M29" t="n">
-        <v>1.318776320081389</v>
+        <v>1.31877632008177</v>
       </c>
       <c r="N29" t="n">
         <v>35</v>
@@ -1929,31 +1929,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7565627421127689</v>
+        <v>0.7565627421135126</v>
       </c>
       <c r="F30" t="n">
-        <v>1.351610901686217</v>
+        <v>1.351610901686632</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.03392306975342763</v>
+        <v>-0.03392306976110149</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.06628259807001768</v>
+        <v>-0.06628259809667725</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.876617439191479</v>
+        <v>-2.876617443129094</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1229436719190029</v>
+        <v>0.1229436719188667</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2313023511469443</v>
+        <v>0.2313023511475027</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2619464145794551</v>
+        <v>0.2619464145798842</v>
       </c>
       <c r="M30" t="n">
-        <v>1.325984956719342</v>
+        <v>1.32598495671968</v>
       </c>
       <c r="N30" t="n">
         <v>37</v>
@@ -1979,31 +1979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7424406102824926</v>
+        <v>0.7424406102832215</v>
       </c>
       <c r="F31" t="n">
-        <v>1.348359669442661</v>
+        <v>1.348359669443057</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01259735878801393</v>
+        <v>-0.01259735879528989</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.08382693931469021</v>
+        <v>-0.08382693933964447</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.012282688858323</v>
+        <v>-3.01228269279598</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1224582417686853</v>
+        <v>0.122458241767947</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2713894351036124</v>
+        <v>0.2713894351042915</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2977385538739242</v>
+        <v>0.2977385538742395</v>
       </c>
       <c r="M31" t="n">
-        <v>1.315076253194696</v>
+        <v>1.315076253195022</v>
       </c>
       <c r="N31" t="n">
         <v>38</v>
@@ -2029,31 +2029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>1.461825734803462</v>
+        <v>1.461825734809545</v>
       </c>
       <c r="F32" t="n">
-        <v>2.32486032318477</v>
+        <v>2.324860323182422</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00333770264217037</v>
+        <v>0.003337702838621226</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07296431951192517</v>
+        <v>0.07296431948935833</v>
       </c>
       <c r="I32" t="n">
-        <v>1.040832915057063</v>
+        <v>1.040832713695448</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1616233763200605</v>
+        <v>0.161623376311955</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3285412322910614</v>
+        <v>0.32854123229613</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3661440387175859</v>
+        <v>0.3661440387185561</v>
       </c>
       <c r="M32" t="n">
-        <v>2.295847134551941</v>
+        <v>2.295847134549411</v>
       </c>
       <c r="N32" t="n">
         <v>51</v>
@@ -2079,31 +2079,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>1.445097474703924</v>
+        <v>1.445097474707036</v>
       </c>
       <c r="F33" t="n">
-        <v>2.330647960222012</v>
+        <v>2.330647960218716</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04693217233358382</v>
+        <v>0.04693217242618175</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01444463582907929</v>
+        <v>0.01444463568753918</v>
       </c>
       <c r="I33" t="n">
-        <v>1.430913266486882</v>
+        <v>1.430913065121811</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2653619905620968</v>
+        <v>0.2653619905653324</v>
       </c>
       <c r="K33" t="n">
-        <v>0.323402866032949</v>
+        <v>0.3234028660326954</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4183376624132757</v>
+        <v>0.4183376624151322</v>
       </c>
       <c r="M33" t="n">
-        <v>2.29279600372419</v>
+        <v>2.292796003720502</v>
       </c>
       <c r="N33" t="n">
         <v>49</v>
@@ -2129,31 +2129,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>1.54478485747955</v>
+        <v>1.544784857483251</v>
       </c>
       <c r="F34" t="n">
-        <v>2.443433538045782</v>
+        <v>2.443433538044551</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0959905990974903</v>
+        <v>0.09599059914478403</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.031180023568254</v>
+        <v>-0.03118002367807549</v>
       </c>
       <c r="I34" t="n">
-        <v>1.284354890940188</v>
+        <v>1.284354689578516</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1870268154370661</v>
+        <v>0.1870268154399763</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2111351627961959</v>
+        <v>0.2111351628062281</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2820586581927713</v>
+        <v>0.2820586582022105</v>
       </c>
       <c r="M34" t="n">
-        <v>2.427099167357077</v>
+        <v>2.427099167354741</v>
       </c>
       <c r="N34" t="n">
         <v>47</v>
@@ -2179,31 +2179,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5448200616932678</v>
+        <v>0.5448200620140491</v>
       </c>
       <c r="F35" t="n">
-        <v>1.061326757155293</v>
+        <v>1.061326757500061</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2217916045208881</v>
+        <v>-0.2217916041252579</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0781637094074199</v>
+        <v>0.07816371104871678</v>
       </c>
       <c r="I35" t="n">
-        <v>6.815228083326256</v>
+        <v>6.815229103071873</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1431172134655257</v>
+        <v>0.1431172134197098</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3103614673996687</v>
+        <v>0.3103614676924223</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3417700648632242</v>
+        <v>0.3417700651098881</v>
       </c>
       <c r="M35" t="n">
-        <v>1.004792370700137</v>
+        <v>1.00479237098036</v>
       </c>
       <c r="N35" t="n">
         <v>37</v>
@@ -2229,31 +2229,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5396072373767538</v>
+        <v>0.539607237530901</v>
       </c>
       <c r="F36" t="n">
-        <v>1.051381441331243</v>
+        <v>1.051381441531638</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2167871618588606</v>
+        <v>-0.2167871616542811</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00676524719540339</v>
+        <v>0.006765248869839979</v>
       </c>
       <c r="I36" t="n">
-        <v>6.711180898864856</v>
+        <v>6.711181918720941</v>
       </c>
       <c r="J36" t="n">
-        <v>0.09958727714188866</v>
+        <v>0.09958727692497669</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2955925307795562</v>
+        <v>0.2955925310681164</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3119175692730344</v>
+        <v>0.3119175694772376</v>
       </c>
       <c r="M36" t="n">
-        <v>1.004046993499079</v>
+        <v>1.004046993645498</v>
       </c>
       <c r="N36" t="n">
         <v>36</v>
@@ -2279,31 +2279,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5366720152806984</v>
+        <v>0.5366720155152035</v>
       </c>
       <c r="F37" t="n">
-        <v>1.089606114142572</v>
+        <v>1.089606114408799</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.2236365224765677</v>
+        <v>-0.2236365224662222</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05466534233403308</v>
+        <v>0.05466534438181725</v>
       </c>
       <c r="I37" t="n">
-        <v>6.752158140644573</v>
+        <v>6.752159160432713</v>
       </c>
       <c r="J37" t="n">
-        <v>0.09718927091678572</v>
+        <v>0.09718927066647789</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3140365602802954</v>
+        <v>0.3140365606510452</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3287319813678249</v>
+        <v>0.3287319816479977</v>
       </c>
       <c r="M37" t="n">
-        <v>1.038834331547992</v>
+        <v>1.038834331738601</v>
       </c>
       <c r="N37" t="n">
         <v>35</v>
@@ -2329,31 +2329,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4158223952650979</v>
+        <v>0.4158223952648726</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9530798923903856</v>
+        <v>0.9530798923905272</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2741606599884676</v>
+        <v>-0.2741606599889224</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.04889728470703858</v>
+        <v>-0.04889728470283217</v>
       </c>
       <c r="I38" t="n">
-        <v>11.89413585454039</v>
+        <v>11.89413585600216</v>
       </c>
       <c r="J38" t="n">
-        <v>0.228196749310828</v>
+        <v>0.2281967493101363</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2150975213546051</v>
+        <v>0.2150975213556625</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3135932079763905</v>
+        <v>0.3135932079766124</v>
       </c>
       <c r="M38" t="n">
-        <v>0.9000114339218394</v>
+        <v>0.9000114339218899</v>
       </c>
       <c r="N38" t="n">
         <v>37</v>
@@ -2379,31 +2379,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3573433166117479</v>
+        <v>0.3573433166115965</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8726712435731296</v>
+        <v>0.8726712435732547</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2545877140575499</v>
+        <v>-0.2545877140580046</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0608056754602444</v>
+        <v>-0.06080567545660642</v>
       </c>
       <c r="I39" t="n">
-        <v>11.92646102657909</v>
+        <v>11.92646102804081</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2357657214550881</v>
+        <v>0.2357657214544282</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2130839895828599</v>
+        <v>0.2130839895837913</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3177896506020713</v>
+        <v>0.3177896506022062</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8127513994634313</v>
+        <v>0.812751399463473</v>
       </c>
       <c r="N39" t="n">
         <v>36</v>
@@ -2429,31 +2429,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4248504697930984</v>
+        <v>0.4248504697930364</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9696488088355175</v>
+        <v>0.9696488088355817</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.3209056830876307</v>
+        <v>-0.3209056830883696</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02468566673564965</v>
+        <v>-0.02468566673212536</v>
       </c>
       <c r="I40" t="n">
-        <v>11.83403763416442</v>
+        <v>11.83403763562628</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2441217222221639</v>
+        <v>0.244121722221343</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2115648998982664</v>
+        <v>0.2115648998993275</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3230404342024058</v>
+        <v>0.3230404342024804</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9142558123121195</v>
+        <v>0.9142558123121689</v>
       </c>
       <c r="N40" t="n">
         <v>40</v>
@@ -2479,31 +2479,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3682700077469928</v>
+        <v>0.3682700089930733</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9024773626873163</v>
+        <v>0.9024773643822425</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.2655440190021068</v>
+        <v>-0.2655439956288319</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.05552542769385127</v>
+        <v>-0.05552546681673221</v>
       </c>
       <c r="I41" t="n">
-        <v>16.01689166816648</v>
+        <v>16.01687419724815</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3157527594471282</v>
+        <v>0.315752775071335</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2803782170373906</v>
+        <v>0.2803782028505806</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4222697593808277</v>
+        <v>0.4222697616441063</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7975924024685462</v>
+        <v>0.7975924031881537</v>
       </c>
       <c r="N41" t="n">
         <v>40</v>
@@ -2529,31 +2529,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.355628533251191</v>
+        <v>0.3556285329905395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8781905005952253</v>
+        <v>0.8781905020896625</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2964405073697094</v>
+        <v>-0.2964404876615276</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.09627203972968346</v>
+        <v>-0.09627206745608419</v>
       </c>
       <c r="I42" t="n">
-        <v>15.91137243155988</v>
+        <v>15.91135495822322</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3099103154054444</v>
+        <v>0.3099103288460445</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2813596723443149</v>
+        <v>0.2813596607424138</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4185781513844246</v>
+        <v>0.4185781535371257</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7720174133523994</v>
+        <v>0.7720174138853116</v>
       </c>
       <c r="N42" t="n">
         <v>40</v>
@@ -2579,31 +2579,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3935228002155656</v>
+        <v>0.3935228017480896</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9063009465350799</v>
+        <v>0.9063009484019244</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2837132751105855</v>
+        <v>-0.2837132528747475</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.05551754733488679</v>
+        <v>-0.05551758816409347</v>
       </c>
       <c r="I43" t="n">
-        <v>16.03864927072954</v>
+        <v>16.0386317991413</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3184610469076708</v>
+        <v>0.3184610626597617</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2850740772122173</v>
+        <v>0.2850740623069232</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4274162700411941</v>
+        <v>0.4274162718364337</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7991850460278729</v>
+        <v>0.7991850471847466</v>
       </c>
       <c r="N43" t="n">
         <v>41</v>
@@ -2629,31 +2629,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4241608209893593</v>
+        <v>0.4241608207596129</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9923463830363177</v>
+        <v>0.9923463831964608</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.2664594281922632</v>
+        <v>-0.2664594256335704</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1246996569597059</v>
+        <v>-0.1246996590854224</v>
       </c>
       <c r="I44" t="n">
-        <v>20.73116765744769</v>
+        <v>20.73116637534779</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4036889736766981</v>
+        <v>0.4036889748717435</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4185999205248485</v>
+        <v>0.4185999198577131</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5815416416143864</v>
+        <v>0.5815416419637401</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8040899595156094</v>
+        <v>0.8040899594604795</v>
       </c>
       <c r="N44" t="n">
         <v>43</v>
@@ -2679,31 +2679,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3916414033646051</v>
+        <v>0.3916414030677512</v>
       </c>
       <c r="F45" t="n">
-        <v>0.979815891093653</v>
+        <v>0.9798158912569614</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.2902343703439669</v>
+        <v>-0.2902343677863541</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.1539420432587235</v>
+        <v>-0.1539420454274136</v>
       </c>
       <c r="I45" t="n">
-        <v>20.76172177161327</v>
+        <v>20.76172048938489</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4093665409126059</v>
+        <v>0.4093665421263827</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4115099953310125</v>
+        <v>0.4115099946382519</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5804493441085811</v>
+        <v>0.5804493444734738</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7893780712457581</v>
+        <v>0.7893780711800733</v>
       </c>
       <c r="N45" t="n">
         <v>43</v>
@@ -2729,31 +2729,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3875883226632204</v>
+        <v>0.3875883223716939</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9767768600039891</v>
+        <v>0.9767768601612156</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.2469823017200383</v>
+        <v>-0.2469822990840953</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.135122312818055</v>
+        <v>-0.1351223150059582</v>
       </c>
       <c r="I46" t="n">
-        <v>20.76111719505843</v>
+        <v>20.76111591298934</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4136433739311703</v>
+        <v>0.4136433751751507</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4162067963189575</v>
+        <v>0.4162067956191323</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5867954823439357</v>
+        <v>0.5867954827244639</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7808739310157703</v>
+        <v>0.7808739309263466</v>
       </c>
       <c r="N46" t="n">
         <v>43</v>
@@ -2779,31 +2779,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4425192300018003</v>
+        <v>0.4425192300021846</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9975757963322529</v>
+        <v>0.9975757963321952</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.3650785886551375</v>
+        <v>-0.3650785886590597</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0762294163689603</v>
+        <v>-0.07622941636640235</v>
       </c>
       <c r="I47" t="n">
-        <v>26.08485379609737</v>
+        <v>26.08485379814766</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4143930820511589</v>
+        <v>0.4143930820494744</v>
       </c>
       <c r="K47" t="n">
-        <v>0.351784752588276</v>
+        <v>0.3517847525893845</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5435753292833047</v>
+        <v>0.5435753292827379</v>
       </c>
       <c r="M47" t="n">
-        <v>0.836470759095899</v>
+        <v>0.8364707590962127</v>
       </c>
       <c r="N47" t="n">
         <v>37</v>
@@ -2829,31 +2829,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4599437298525735</v>
+        <v>0.4599437298530575</v>
       </c>
       <c r="F48" t="n">
-        <v>1.033929150908941</v>
+        <v>1.033929150909098</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.3635107286885955</v>
+        <v>-0.3635107286929156</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.08962156844995661</v>
+        <v>-0.08962156844756919</v>
       </c>
       <c r="I48" t="n">
-        <v>26.06227476493764</v>
+        <v>26.06227476698796</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4170909969725133</v>
+        <v>0.4170909969706924</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3634395349220803</v>
+        <v>0.3634395349230573</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5532207473512749</v>
+        <v>0.5532207473505438</v>
       </c>
       <c r="M48" t="n">
-        <v>0.873473693822364</v>
+        <v>0.8734736938227254</v>
       </c>
       <c r="N48" t="n">
         <v>36</v>
@@ -2879,31 +2879,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4163950024997555</v>
+        <v>0.41639500250034</v>
       </c>
       <c r="F49" t="n">
-        <v>1.002162521798305</v>
+        <v>1.002162521798428</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.3282528347428979</v>
+        <v>-0.3282528347466496</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.1017689884149604</v>
+        <v>-0.101768988412914</v>
       </c>
       <c r="I49" t="n">
-        <v>26.20490483223613</v>
+        <v>26.20490483428628</v>
       </c>
       <c r="J49" t="n">
-        <v>0.366658446312509</v>
+        <v>0.3666584463110398</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3748834453733703</v>
+        <v>0.374883445374419</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5243815537061842</v>
+        <v>0.5243815537059067</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8540220759616524</v>
+        <v>0.8540220759619886</v>
       </c>
       <c r="N49" t="n">
         <v>37</v>
@@ -2929,31 +2929,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4292002897461203</v>
+        <v>0.4292002897462471</v>
       </c>
       <c r="F50" t="n">
-        <v>1.077437143773793</v>
+        <v>1.077437143773586</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.3754287958482223</v>
+        <v>-0.3754287958522013</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1012226387322812</v>
+        <v>-0.1012226387281316</v>
       </c>
       <c r="I50" t="n">
-        <v>31.10323385383408</v>
+        <v>31.10323385611433</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3774916422590844</v>
+        <v>0.377491642257082</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4149194347655669</v>
+        <v>0.4149194347673363</v>
       </c>
       <c r="L50" t="n">
-        <v>0.5609439163781332</v>
+        <v>0.5609439163780944</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9198982125548846</v>
+        <v>0.9198982125547034</v>
       </c>
       <c r="N50" t="n">
         <v>34</v>
@@ -2979,31 +2979,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4700418398194048</v>
+        <v>0.4700418398196577</v>
       </c>
       <c r="F51" t="n">
-        <v>1.154018187442531</v>
+        <v>1.154018187442263</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.4283578815232545</v>
+        <v>-0.4283578815274041</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0875544397844692</v>
+        <v>-0.08755443978134281</v>
       </c>
       <c r="I51" t="n">
-        <v>31.04301286656235</v>
+        <v>31.04301286884283</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3976595614515642</v>
+        <v>0.3976595614497474</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4207087417892363</v>
+        <v>0.4207087417905464</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5789032494568784</v>
+        <v>0.5789032494565824</v>
       </c>
       <c r="M51" t="n">
-        <v>0.9983130795077775</v>
+        <v>0.9983130795076497</v>
       </c>
       <c r="N51" t="n">
         <v>36</v>
@@ -3029,31 +3029,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4333218960139422</v>
+        <v>0.433321896013694</v>
       </c>
       <c r="F52" t="n">
-        <v>1.077483912520941</v>
+        <v>1.077483912520672</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.3325503085948753</v>
+        <v>-0.332550308598627</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.1331568553146667</v>
+        <v>-0.1331568553092097</v>
       </c>
       <c r="I52" t="n">
-        <v>31.16426159206937</v>
+        <v>31.16426159434953</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4161688244868345</v>
+        <v>0.4161688244847594</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4160690313483402</v>
+        <v>0.4160690313504241</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5884810356518719</v>
+        <v>0.5884810356518778</v>
       </c>
       <c r="M52" t="n">
-        <v>0.9025860914170639</v>
+        <v>0.9025860914167984</v>
       </c>
       <c r="N52" t="n">
         <v>35</v>
@@ -3079,31 +3079,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4395498481857806</v>
+        <v>0.4395498482898758</v>
       </c>
       <c r="F53" t="n">
-        <v>1.213973319282951</v>
+        <v>1.213973319362677</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.3778327262781431</v>
+        <v>-0.377832730616035</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.127476330200011</v>
+        <v>-0.127476322322309</v>
       </c>
       <c r="I53" t="n">
-        <v>36.45560337367052</v>
+        <v>36.45560567957291</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4161887569233402</v>
+        <v>0.4161887547059705</v>
       </c>
       <c r="K53" t="n">
-        <v>0.504984543213692</v>
+        <v>0.5049845455105454</v>
       </c>
       <c r="L53" t="n">
-        <v>0.654387095131113</v>
+        <v>0.6543870954933315</v>
       </c>
       <c r="M53" t="n">
-        <v>1.022501222325266</v>
+        <v>1.022501222188078</v>
       </c>
       <c r="N53" t="n">
         <v>34</v>
@@ -3129,31 +3129,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4484312569717208</v>
+        <v>0.4484312570076356</v>
       </c>
       <c r="F54" t="n">
-        <v>1.234958755139001</v>
+        <v>1.234958754905521</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.3088251014870593</v>
+        <v>-0.3088251056527156</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.2252458949135416</v>
+        <v>-0.2252458909510437</v>
       </c>
       <c r="I54" t="n">
-        <v>36.13697690178748</v>
+        <v>36.13697920776055</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4755671508713887</v>
+        <v>0.4755671492752428</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4736301867174922</v>
+        <v>0.4736301880350359</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6711852715591847</v>
+        <v>0.6711852713579795</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03664529041368</v>
+        <v>1.036645290265594</v>
       </c>
       <c r="N54" t="n">
         <v>32</v>
@@ -3179,31 +3179,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5331612277880413</v>
+        <v>0.53316122759069</v>
       </c>
       <c r="F55" t="n">
-        <v>1.263257629345046</v>
+        <v>1.263257629013064</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.4034573372173327</v>
+        <v>-0.4034573404653656</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.1081495765360501</v>
+        <v>-0.1081495695899548</v>
       </c>
       <c r="I55" t="n">
-        <v>36.38562365761192</v>
+        <v>36.38562596357408</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4426887454660742</v>
+        <v>0.4426887437417667</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5104033357590473</v>
+        <v>0.5104033377004235</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6756366556931982</v>
+        <v>0.6756366560299967</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06739634043882</v>
+        <v>1.067396339832709</v>
       </c>
       <c r="N55" t="n">
         <v>33</v>
@@ -3229,31 +3229,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3458677333838358</v>
+        <v>0.3458677333810896</v>
       </c>
       <c r="F56" t="n">
-        <v>1.099988253055099</v>
+        <v>1.099988253047545</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.411387019574704</v>
+        <v>-0.4113870196127323</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1417202238149571</v>
+        <v>0.141720223833147</v>
       </c>
       <c r="I56" t="n">
-        <v>40.63308037210494</v>
+        <v>40.63308038857772</v>
       </c>
       <c r="J56" t="n">
-        <v>0.487873354378245</v>
+        <v>0.4878733543679955</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4353235047926636</v>
+        <v>0.4353235047970154</v>
       </c>
       <c r="L56" t="n">
-        <v>0.6538554608912039</v>
+        <v>0.6538554608864537</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8845604519319328</v>
+        <v>0.8845604519260958</v>
       </c>
       <c r="N56" t="n">
         <v>19</v>
@@ -3279,31 +3279,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3942926478895494</v>
+        <v>0.3942926478895241</v>
       </c>
       <c r="F57" t="n">
-        <v>1.149574533403572</v>
+        <v>1.149574533400186</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3454334794301417</v>
+        <v>-0.3454334794764122</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.08398227401903569</v>
+        <v>-0.08398227397862001</v>
       </c>
       <c r="I57" t="n">
-        <v>40.96235652734857</v>
+        <v>40.96235654382522</v>
       </c>
       <c r="J57" t="n">
-        <v>0.521413289115044</v>
+        <v>0.521413289100194</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4896742339892957</v>
+        <v>0.4896742339962166</v>
       </c>
       <c r="L57" t="n">
-        <v>0.7152990098544607</v>
+        <v>0.7152990098483738</v>
       </c>
       <c r="M57" t="n">
-        <v>0.8999271828048716</v>
+        <v>0.8999271828052341</v>
       </c>
       <c r="N57" t="n">
         <v>21</v>
@@ -3329,31 +3329,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4564364846359181</v>
+        <v>0.4564364846356136</v>
       </c>
       <c r="F58" t="n">
-        <v>1.293042340118078</v>
+        <v>1.293042340115424</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3683469642611499</v>
+        <v>-0.3683469643009403</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.05078136450470083</v>
+        <v>-0.05078136447207271</v>
       </c>
       <c r="I58" t="n">
-        <v>40.93413781289988</v>
+        <v>40.93413782937648</v>
       </c>
       <c r="J58" t="n">
-        <v>0.520669129985882</v>
+        <v>0.5206691299732972</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5149376781937736</v>
+        <v>0.5149376782010487</v>
       </c>
       <c r="L58" t="n">
-        <v>0.7322958113657688</v>
+        <v>0.7322958113619367</v>
       </c>
       <c r="M58" t="n">
-        <v>1.065692891031142</v>
+        <v>1.06569289103047</v>
       </c>
       <c r="N58" t="n">
         <v>19</v>
@@ -3379,31 +3379,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3221379290508034</v>
+        <v>0.3221379294152888</v>
       </c>
       <c r="F59" t="n">
-        <v>1.106844983623577</v>
+        <v>1.10684498022063</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4893510810109092</v>
+        <v>-0.489351061670618</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.2588717196640573</v>
+        <v>-0.2588717269075573</v>
       </c>
       <c r="I59" t="n">
-        <v>45.90657169280514</v>
+        <v>45.90655578066716</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3513037668046201</v>
+        <v>0.3513037703356284</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6195023756998974</v>
+        <v>0.6195023728456249</v>
       </c>
       <c r="L59" t="n">
-        <v>0.7121780185241129</v>
+        <v>0.7121780177830452</v>
       </c>
       <c r="M59" t="n">
-        <v>0.8472946876404245</v>
+        <v>0.847294683817816</v>
       </c>
       <c r="N59" t="n">
         <v>14</v>
@@ -3429,31 +3429,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.41403703521494</v>
+        <v>0.4140370354553981</v>
       </c>
       <c r="F60" t="n">
-        <v>1.115288307525335</v>
+        <v>1.115288309375559</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2734814722583678</v>
+        <v>-0.273481425605155</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.528496573006521</v>
+        <v>-0.5284965678430922</v>
       </c>
       <c r="I60" t="n">
-        <v>45.52728517456853</v>
+        <v>45.52726926248779</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2728430772981809</v>
+        <v>0.2728430845236465</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6651631710235485</v>
+        <v>0.6651631696721241</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7189474173509796</v>
+        <v>0.7189474188427444</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8526327579839011</v>
+        <v>0.8526327591460127</v>
       </c>
       <c r="N60" t="n">
         <v>14</v>
@@ -3479,31 +3479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5294139533866938</v>
+        <v>0.5294139478460926</v>
       </c>
       <c r="F61" t="n">
-        <v>1.290968227984907</v>
+        <v>1.290968223439732</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.344162108911064</v>
+        <v>-0.3441620823938365</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.252645453594937</v>
+        <v>-0.2526454400558009</v>
       </c>
       <c r="I61" t="n">
-        <v>45.89433735807491</v>
+        <v>45.89432145101669</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3570512723246996</v>
+        <v>0.3570512743603803</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5785515048977931</v>
+        <v>0.5785515067475006</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6798584079705036</v>
+        <v>0.6798584106136915</v>
       </c>
       <c r="M61" t="n">
-        <v>1.097447725761175</v>
+        <v>1.097447718777063</v>
       </c>
       <c r="N61" t="n">
         <v>14</v>
@@ -3529,31 +3529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5375724801717777</v>
+        <v>0.5375724801044862</v>
       </c>
       <c r="F62" t="n">
-        <v>1.168083228898058</v>
+        <v>1.168083228898403</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1568388862842767</v>
+        <v>-0.1568388862131087</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.3768534691686227</v>
+        <v>-0.376853469611774</v>
       </c>
       <c r="I62" t="n">
-        <v>51.73063231603977</v>
+        <v>51.73063148845596</v>
       </c>
       <c r="J62" t="n">
-        <v>0.4903238743656003</v>
+        <v>0.4903238743815854</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6335469396611666</v>
+        <v>0.6335469395703062</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8011237273523504</v>
+        <v>0.8011237272902795</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8500701165821332</v>
+        <v>0.850070116641227</v>
       </c>
       <c r="N62" t="n">
         <v>13</v>
@@ -3579,31 +3579,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5340275241015815</v>
+        <v>0.5340275235646206</v>
       </c>
       <c r="F63" t="n">
-        <v>1.388806009623884</v>
+        <v>1.388806008965261</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3066921398314548</v>
+        <v>-0.3066921380374765</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.04381372393601168</v>
+        <v>-0.04381372382925974</v>
       </c>
       <c r="I63" t="n">
-        <v>51.09227419774561</v>
+        <v>51.09227337037213</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4292565136690651</v>
+        <v>0.4292565134744535</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4989978906385978</v>
+        <v>0.4989978906097194</v>
       </c>
       <c r="L63" t="n">
-        <v>0.6582249230993084</v>
+        <v>0.6582249229505012</v>
       </c>
       <c r="M63" t="n">
-        <v>1.222915403034212</v>
+        <v>1.222915402366324</v>
       </c>
       <c r="N63" t="n">
         <v>12</v>
@@ -3629,31 +3629,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4526139682404372</v>
+        <v>0.4526139682892834</v>
       </c>
       <c r="F64" t="n">
-        <v>1.242081392706118</v>
+        <v>1.242081392390452</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1462758266181368</v>
+        <v>-0.1462758250216325</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.2517331004241328</v>
+        <v>-0.2517331008395445</v>
       </c>
       <c r="I64" t="n">
-        <v>51.60984763257359</v>
+        <v>51.60984680518852</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3082193486678052</v>
+        <v>0.3082193490147809</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5706611988245206</v>
+        <v>0.5706611986603031</v>
       </c>
       <c r="L64" t="n">
-        <v>0.648577960415743</v>
+        <v>0.6485779604361448</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05929826553698</v>
+        <v>1.059298265154453</v>
       </c>
       <c r="N64" t="n">
         <v>12</v>

--- a/publication/analyses/outputs/rigid_transformations/df_icp_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/df_icp_gdpt.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.354945969140062</v>
+        <v>0.354945969137997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7959570145867249</v>
+        <v>0.7959570145852225</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9143361287173661</v>
+        <v>-0.9143361287105449</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.07801957525271064</v>
+        <v>-0.07801957525322223</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.39187009952746</v>
+        <v>-47.39187010327338</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3718698692733888</v>
+        <v>0.3718698692722757</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5137432126970948</v>
+        <v>0.5137432126973059</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6342076065971929</v>
+        <v>0.6342076065967112</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4809659871592866</v>
+        <v>0.4809659871574276</v>
       </c>
       <c r="N2" t="n">
         <v>12</v>
@@ -579,31 +579,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4382175143151841</v>
+        <v>0.4382175143148926</v>
       </c>
       <c r="F3" t="n">
-        <v>1.173469653394175</v>
+        <v>1.173469653394169</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.09870505863995</v>
+        <v>-1.098705058644555</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3606567722797536</v>
+        <v>0.3606567722773661</v>
       </c>
       <c r="I3" t="n">
-        <v>-46.36880872988871</v>
+        <v>-46.36880873363334</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5726973489557757</v>
+        <v>0.5726973489572749</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8044910816104841</v>
+        <v>0.8044910816110307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9875161537371326</v>
+        <v>0.9875161537384471</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6339107772748031</v>
+        <v>0.6339107772730018</v>
       </c>
       <c r="N3" t="n">
         <v>13</v>
@@ -629,31 +629,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3363853133407699</v>
+        <v>0.3363853133410254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9225381613000699</v>
+        <v>0.9225381613009647</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.028401527577785</v>
+        <v>-1.028401527581707</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00709496862037895</v>
+        <v>0.007094968618787334</v>
       </c>
       <c r="I4" t="n">
-        <v>-46.6237108729249</v>
+        <v>-46.62371087667124</v>
       </c>
       <c r="J4" t="n">
-        <v>0.531159348861463</v>
+        <v>0.5311593488626967</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6345690591643803</v>
+        <v>0.6345690591647697</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8275313557392857</v>
+        <v>0.8275313557403761</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4077603638451429</v>
+        <v>0.4077603638449396</v>
       </c>
       <c r="N4" t="n">
         <v>11</v>
@@ -679,31 +679,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5789670900626098</v>
+        <v>0.5789670901756531</v>
       </c>
       <c r="F5" t="n">
-        <v>1.274473122515352</v>
+        <v>1.274473122499894</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8302789928229117</v>
+        <v>-0.8302789923453702</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1245784728860144</v>
+        <v>-0.1245784723016641</v>
       </c>
       <c r="I5" t="n">
-        <v>-41.55578443231081</v>
+        <v>-41.55578405013177</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5539004304239243</v>
+        <v>0.5539004302893743</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8669928053483995</v>
+        <v>0.8669928052209345</v>
       </c>
       <c r="L5" t="n">
-        <v>1.028825646720423</v>
+        <v>1.028825646540569</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7521964694573597</v>
+        <v>0.7521964696772653</v>
       </c>
       <c r="N5" t="n">
         <v>15</v>
@@ -729,31 +729,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5620772714442076</v>
+        <v>0.5620772714967132</v>
       </c>
       <c r="F6" t="n">
-        <v>1.225496918375596</v>
+        <v>1.225496918402626</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8722565385003804</v>
+        <v>-0.8722565379509319</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1444441026162622</v>
+        <v>-0.1444441021046146</v>
       </c>
       <c r="I6" t="n">
-        <v>-41.87097251763181</v>
+        <v>-41.87097213540559</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4820805473602369</v>
+        <v>0.4820805472303436</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7816332302397011</v>
+        <v>0.7816332301473393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9183420717565407</v>
+        <v>0.9183420716097414</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8114742979232259</v>
+        <v>0.8114742981302298</v>
       </c>
       <c r="N6" t="n">
         <v>18</v>
@@ -779,31 +779,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3849601438406606</v>
+        <v>0.3849601438469607</v>
       </c>
       <c r="F7" t="n">
-        <v>1.036973075578901</v>
+        <v>1.036973075524404</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.038827783374472</v>
+        <v>-1.03882778303813</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01279919903504378</v>
+        <v>0.01279919926628281</v>
       </c>
       <c r="I7" t="n">
-        <v>-42.21601211770624</v>
+        <v>-42.21601173544609</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3994578327304055</v>
+        <v>0.3994578326824872</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5117326163266911</v>
+        <v>0.5117326162992959</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6491816623582594</v>
+        <v>0.6491816623071792</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8086261983966427</v>
+        <v>0.8086261983677724</v>
       </c>
       <c r="N7" t="n">
         <v>17</v>
@@ -829,31 +829,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5760826761125375</v>
+        <v>0.576082676135481</v>
       </c>
       <c r="F8" t="n">
-        <v>1.130820432483882</v>
+        <v>1.130820432417183</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9889116031526441</v>
+        <v>-0.9889116025967724</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1274087222179219</v>
+        <v>0.127408722772941</v>
       </c>
       <c r="I8" t="n">
-        <v>-36.60159626627976</v>
+        <v>-36.60159581000415</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5093333723869246</v>
+        <v>0.5093333723375003</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7176758226535983</v>
+        <v>0.7176758225678666</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8800449253581074</v>
+        <v>0.8800449252595886</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7101237778546322</v>
+        <v>0.7101237778704311</v>
       </c>
       <c r="N8" t="n">
         <v>22</v>
@@ -879,31 +879,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5345163813132907</v>
+        <v>0.534516381378497</v>
       </c>
       <c r="F9" t="n">
-        <v>1.040583510270254</v>
+        <v>1.040583510251335</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.014672867201341</v>
+        <v>-1.014672866011722</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.007096167785789476</v>
+        <v>-0.007096167032443645</v>
       </c>
       <c r="I9" t="n">
-        <v>-36.02462050667759</v>
+        <v>-36.02462005027477</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4569146204889243</v>
+        <v>0.4569146204679652</v>
       </c>
       <c r="K9" t="n">
-        <v>0.69454665522396</v>
+        <v>0.6945466551850068</v>
       </c>
       <c r="L9" t="n">
-        <v>0.83136395561711</v>
+        <v>0.8313639555730484</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6258178769794557</v>
+        <v>0.6258178770064567</v>
       </c>
       <c r="N9" t="n">
         <v>22</v>
@@ -929,31 +929,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6139297853531177</v>
+        <v>0.6139297855310167</v>
       </c>
       <c r="F10" t="n">
-        <v>1.117955774610393</v>
+        <v>1.11795577478377</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.047325315567548</v>
+        <v>-1.047325314848763</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1332000071309949</v>
+        <v>0.1332000075551036</v>
       </c>
       <c r="I10" t="n">
-        <v>-36.54057240119749</v>
+        <v>-36.54057194486998</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4613480097955876</v>
+        <v>0.4613480097215431</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7222123195106406</v>
+        <v>0.7222123194704445</v>
       </c>
       <c r="L10" t="n">
-        <v>0.856990443701264</v>
+        <v>0.8569904436275287</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7179084157393532</v>
+        <v>0.7179084160974173</v>
       </c>
       <c r="N10" t="n">
         <v>22</v>
@@ -979,31 +979,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6549752830788127</v>
+        <v>0.6549752838301822</v>
       </c>
       <c r="F11" t="n">
-        <v>1.098962578916078</v>
+        <v>1.098962578938145</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.015769661406352</v>
+        <v>-1.015769653477605</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07145916409371011</v>
+        <v>0.07145916990663181</v>
       </c>
       <c r="I11" t="n">
-        <v>-31.39580492903724</v>
+        <v>-31.39580177698923</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3787350070323713</v>
+        <v>0.3787350062631382</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5417115160978301</v>
+        <v>0.5417115154780148</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6609777395834293</v>
+        <v>0.6609777386346887</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8779676404247946</v>
+        <v>0.8779676411666556</v>
       </c>
       <c r="N11" t="n">
         <v>31</v>
@@ -1029,31 +1029,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7039449554886136</v>
+        <v>0.7039449555988245</v>
       </c>
       <c r="F12" t="n">
-        <v>1.186890134675683</v>
+        <v>1.186890134885031</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.06617490236016</v>
+        <v>-1.066174893936363</v>
       </c>
       <c r="H12" t="n">
-        <v>0.100346686311525</v>
+        <v>0.100346692887058</v>
       </c>
       <c r="I12" t="n">
-        <v>-31.20014237720834</v>
+        <v>-31.20013922498083</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4213636582135898</v>
+        <v>0.4213636577126831</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5373310402121748</v>
+        <v>0.5373310396361447</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6828411083397343</v>
+        <v>0.6828411075773567</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9707915391843012</v>
+        <v>0.9707915399764608</v>
       </c>
       <c r="N12" t="n">
         <v>30</v>
@@ -1079,31 +1079,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8437376340222557</v>
+        <v>0.8437376346708374</v>
       </c>
       <c r="F13" t="n">
-        <v>1.301958006238924</v>
+        <v>1.301958006192481</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.8886017277633869</v>
+        <v>-0.8886017178772931</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.02643584314159853</v>
+        <v>-0.02643583709283348</v>
       </c>
       <c r="I13" t="n">
-        <v>-31.21887125090766</v>
+        <v>-31.218868099201</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5598550474654566</v>
+        <v>0.559855047067939</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6891169885477557</v>
+        <v>0.6891169879802352</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8878738075186564</v>
+        <v>0.887873806827522</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9522472115642922</v>
+        <v>0.952247212145193</v>
       </c>
       <c r="N13" t="n">
         <v>32</v>
@@ -1129,31 +1129,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5558557570852137</v>
+        <v>0.5558557580981311</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8875934801729566</v>
+        <v>0.8875934812027183</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7455563582979607</v>
+        <v>-0.7455563304628754</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1631105418557581</v>
+        <v>-0.1631105190599555</v>
       </c>
       <c r="I14" t="n">
-        <v>-26.74024974466309</v>
+        <v>-26.74024012350365</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4405458633849181</v>
+        <v>0.4405458639913651</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4798148978061388</v>
+        <v>0.4798148975704979</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6513854418869662</v>
+        <v>0.6513854421235447</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6029255278583541</v>
+        <v>0.6029255291186842</v>
       </c>
       <c r="N14" t="n">
         <v>32</v>
@@ -1179,31 +1179,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7566214994377325</v>
+        <v>0.7566215008428484</v>
       </c>
       <c r="F15" t="n">
-        <v>1.121503128757621</v>
+        <v>1.12150313009009</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.747406256314548</v>
+        <v>-0.7474062337582836</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0342406262183772</v>
+        <v>-0.03424060852421462</v>
       </c>
       <c r="I15" t="n">
-        <v>-27.2514581617947</v>
+        <v>-27.25144854266337</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4754902238891213</v>
+        <v>0.4754902243729595</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6274104521403328</v>
+        <v>0.6274104510492731</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7872323853024999</v>
+        <v>0.7872323847251836</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7987705799189527</v>
+        <v>0.7987705823587703</v>
       </c>
       <c r="N15" t="n">
         <v>37</v>
@@ -1229,31 +1229,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4975310379727637</v>
+        <v>0.4975310380819796</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8526743045239266</v>
+        <v>0.852674303862179</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.730142837317203</v>
+        <v>-0.7301428089873525</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.135146145410431</v>
+        <v>-0.135146116428416</v>
       </c>
       <c r="I16" t="n">
-        <v>-26.56827598975567</v>
+        <v>-26.56826636940229</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3959420697786162</v>
+        <v>0.3959420692080847</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4665114005755486</v>
+        <v>0.4665113985472407</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6118848008306257</v>
+        <v>0.6118847989150263</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5938438011024927</v>
+        <v>0.5938438021260948</v>
       </c>
       <c r="N16" t="n">
         <v>33</v>
@@ -1279,31 +1279,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5507090058975214</v>
+        <v>0.5507090059196447</v>
       </c>
       <c r="F17" t="n">
-        <v>0.900610974319009</v>
+        <v>0.9006109743401134</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.650984406837722</v>
+        <v>-0.6509844070924942</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1182410747300651</v>
+        <v>-0.1182410749837004</v>
       </c>
       <c r="I17" t="n">
-        <v>-21.4845891837793</v>
+        <v>-21.48458929060148</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2861926684764913</v>
+        <v>0.286192668474081</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5010038043309823</v>
+        <v>0.5010038043349918</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5769844499150841</v>
+        <v>0.57698444991737</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6915121630311922</v>
+        <v>0.6915121630567355</v>
       </c>
       <c r="N17" t="n">
         <v>30</v>
@@ -1329,31 +1329,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5966341432495211</v>
+        <v>0.5966341432691856</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9334791045004791</v>
+        <v>0.9334791045274479</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6640376664855125</v>
+        <v>-0.6640376667488113</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1551547339531112</v>
+        <v>-0.1551547341966284</v>
       </c>
       <c r="I18" t="n">
-        <v>-21.43027662058122</v>
+        <v>-21.43027672741308</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2969417283729938</v>
+        <v>0.2969417283783381</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5317745409138849</v>
+        <v>0.5317745409205209</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6090636686039594</v>
+        <v>0.6090636686123591</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7074070158866806</v>
+        <v>0.7074070159150334</v>
       </c>
       <c r="N18" t="n">
         <v>29</v>
@@ -1379,31 +1379,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5661221441123984</v>
+        <v>0.5661221441282934</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8753555090258646</v>
+        <v>0.875355509038465</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6430232923253811</v>
+        <v>-0.6430232926447275</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.140101610736906</v>
+        <v>-0.1401016110053774</v>
       </c>
       <c r="I19" t="n">
-        <v>-21.30247304902539</v>
+        <v>-21.30247315584949</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2904952406492589</v>
+        <v>0.2904952406250749</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4855839117752546</v>
+        <v>0.4855839117732775</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5658438125621142</v>
+        <v>0.5658438125480018</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6678832584869157</v>
+        <v>0.6678832585153677</v>
       </c>
       <c r="N19" t="n">
         <v>34</v>
@@ -1429,31 +1429,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2962641640195036</v>
+        <v>0.2962641640189949</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6541883766749277</v>
+        <v>0.6541883766740528</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6713494049570272</v>
+        <v>-0.6713494049702149</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05385325069681812</v>
+        <v>0.05385325067868507</v>
       </c>
       <c r="I20" t="n">
-        <v>-16.44800437412341</v>
+        <v>-16.44800437846576</v>
       </c>
       <c r="J20" t="n">
-        <v>0.188584584826806</v>
+        <v>0.188584584825648</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1717005152782079</v>
+        <v>0.1717005152780267</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2550396294325666</v>
+        <v>0.2550396294315883</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6024261113160996</v>
+        <v>0.6024261113155626</v>
       </c>
       <c r="N20" t="n">
         <v>37</v>
@@ -1479,31 +1479,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2941598461059946</v>
+        <v>0.294159846105744</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6394985460477263</v>
+        <v>0.6394985460470627</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6568322087790648</v>
+        <v>-0.6568322087911724</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02019309684135351</v>
+        <v>0.02019309682640369</v>
       </c>
       <c r="I21" t="n">
-        <v>-16.69144597687981</v>
+        <v>-16.69144598122229</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1793792775514148</v>
+        <v>0.1793792775502643</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1803730987193929</v>
+        <v>0.1803730987196224</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2543843154687477</v>
+        <v>0.2543843154680992</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5867256688100766</v>
+        <v>0.5867256688096378</v>
       </c>
       <c r="N21" t="n">
         <v>37</v>
@@ -1529,31 +1529,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2569453959562884</v>
+        <v>0.2569453959568744</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5830936667667898</v>
+        <v>0.5830936667664454</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6605815765481111</v>
+        <v>-0.660581576560844</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0009598124367471428</v>
+        <v>-0.0009598124526633001</v>
       </c>
       <c r="I22" t="n">
-        <v>-16.4593584562536</v>
+        <v>-16.45935846059627</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1932595697417568</v>
+        <v>0.1932595697407668</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1601113285249041</v>
+        <v>0.160111328525794</v>
       </c>
       <c r="L22" t="n">
-        <v>0.250967923884266</v>
+        <v>0.2509679238840714</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5263205538497943</v>
+        <v>0.5263205538495266</v>
       </c>
       <c r="N22" t="n">
         <v>35</v>
@@ -1579,31 +1579,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5812072012555115</v>
+        <v>0.5812072012605384</v>
       </c>
       <c r="F23" t="n">
-        <v>0.893589874708159</v>
+        <v>0.8935898747276573</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.5536278281916225</v>
+        <v>-0.5536278279330418</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.08658090538347096</v>
+        <v>-0.08658090509487693</v>
       </c>
       <c r="I23" t="n">
-        <v>-11.90833937678908</v>
+        <v>-11.90833930685021</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2162152680812632</v>
+        <v>0.2162152681251877</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1419576951432266</v>
+        <v>0.1419576951520289</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2586523329912758</v>
+        <v>0.2586523330328245</v>
       </c>
       <c r="M23" t="n">
-        <v>0.855337263784983</v>
+        <v>0.8553372637927726</v>
       </c>
       <c r="N23" t="n">
         <v>40</v>
@@ -1629,31 +1629,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5956476585838593</v>
+        <v>0.595647658584884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8859740002580423</v>
+        <v>0.8859740002768357</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.5834504238696923</v>
+        <v>-0.5834504236070757</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.08734256005379848</v>
+        <v>-0.08734255977162775</v>
       </c>
       <c r="I24" t="n">
-        <v>-11.86023353074967</v>
+        <v>-11.86023346080661</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2192557472472153</v>
+        <v>0.2192557472905323</v>
       </c>
       <c r="K24" t="n">
-        <v>0.140178944859502</v>
+        <v>0.1401789448707089</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2602368522766483</v>
+        <v>0.2602368523191806</v>
       </c>
       <c r="M24" t="n">
-        <v>0.846892383866099</v>
+        <v>0.8468923838726737</v>
       </c>
       <c r="N24" t="n">
         <v>39</v>
@@ -1679,31 +1679,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5930069947034781</v>
+        <v>0.5930069947050075</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8931372156114277</v>
+        <v>0.8931372156307122</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.5344640216917469</v>
+        <v>-0.5344640214210585</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.09165385711145291</v>
+        <v>-0.09165385683155591</v>
       </c>
       <c r="I25" t="n">
-        <v>-11.83472763037075</v>
+        <v>-11.83472756043389</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2177098358855578</v>
+        <v>0.2177098359320178</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1404031028541536</v>
+        <v>0.1404031028693768</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2590571441446666</v>
+        <v>0.2590571441919619</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8547417633284047</v>
+        <v>0.8547417633342743</v>
       </c>
       <c r="N25" t="n">
         <v>39</v>
@@ -1729,31 +1729,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4291419383374862</v>
+        <v>0.429141938379579</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7919827942146054</v>
+        <v>0.7919827940656419</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.3077838172782776</v>
+        <v>-0.3077838201072041</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.07382387304335225</v>
+        <v>-0.07382387991214046</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.441165251089267</v>
+        <v>-6.441166328854788</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1425981393051468</v>
+        <v>0.1425981394109506</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1154336710926389</v>
+        <v>0.1154336704528515</v>
       </c>
       <c r="L26" t="n">
-        <v>0.183464333741503</v>
+        <v>0.1834643334211923</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7704398643481041</v>
+        <v>0.7704398642712861</v>
       </c>
       <c r="N26" t="n">
         <v>44</v>
@@ -1779,31 +1779,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4526406741286785</v>
+        <v>0.4526406742294643</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8091799299537707</v>
+        <v>0.8091799297618154</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3159155154473865</v>
+        <v>-0.3159155176841182</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.09004272353149645</v>
+        <v>-0.0900427302737512</v>
       </c>
       <c r="I27" t="n">
-        <v>-6.578667070534206</v>
+        <v>-6.578668148353817</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2011204686239895</v>
+        <v>0.2011204686575653</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1935075232236655</v>
+        <v>0.1935075226424776</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2790960487783561</v>
+        <v>0.2790960483995926</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7595245582575323</v>
+        <v>0.7595245581922108</v>
       </c>
       <c r="N27" t="n">
         <v>43</v>
@@ -1829,31 +1829,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4514232023030478</v>
+        <v>0.4514232023575843</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8213716857466765</v>
+        <v>0.8213716855828157</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2943599046598138</v>
+        <v>-0.2943599074814074</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0838678194375575</v>
+        <v>-0.08386782606737597</v>
       </c>
       <c r="I28" t="n">
-        <v>-6.506596131599762</v>
+        <v>-6.506597209365802</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2012230753344731</v>
+        <v>0.2012230752850419</v>
       </c>
       <c r="K28" t="n">
-        <v>0.209741118643978</v>
+        <v>0.2097411182314183</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2906579826825513</v>
+        <v>0.2906579823506236</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7682248259782075</v>
+        <v>0.7682248259285933</v>
       </c>
       <c r="N28" t="n">
         <v>43</v>
@@ -1879,31 +1879,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7490324263022013</v>
+        <v>0.7490324263013567</v>
       </c>
       <c r="F29" t="n">
-        <v>1.353654988137115</v>
+        <v>1.353654988136738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01137011877062832</v>
+        <v>-0.0113701187609081</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.05818093510026756</v>
+        <v>-0.05818093507474487</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.746977605395817</v>
+        <v>-2.74697760127117</v>
       </c>
       <c r="J29" t="n">
-        <v>0.124582092983248</v>
+        <v>0.1245820929843703</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2787295223114926</v>
+        <v>0.2787295223110393</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3053045111033892</v>
+        <v>0.3053045111034333</v>
       </c>
       <c r="M29" t="n">
-        <v>1.31877632008177</v>
+        <v>1.318776320081373</v>
       </c>
       <c r="N29" t="n">
         <v>35</v>
@@ -1929,31 +1929,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7565627421135126</v>
+        <v>0.7565627421127408</v>
       </c>
       <c r="F30" t="n">
-        <v>1.351610901686632</v>
+        <v>1.351610901686201</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.03392306976110149</v>
+        <v>-0.03392306975297288</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.06628259809667725</v>
+        <v>-0.06628259806888082</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.876617443129094</v>
+        <v>-2.87661743900424</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1229436719188667</v>
+        <v>0.1229436719190247</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2313023511475027</v>
+        <v>0.2313023511469171</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2619464145798842</v>
+        <v>0.2619464145794412</v>
       </c>
       <c r="M30" t="n">
-        <v>1.32598495671968</v>
+        <v>1.325984956719328</v>
       </c>
       <c r="N30" t="n">
         <v>37</v>
@@ -1979,31 +1979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7424406102832215</v>
+        <v>0.7424406102824544</v>
       </c>
       <c r="F31" t="n">
-        <v>1.348359669443057</v>
+        <v>1.348359669442649</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01259735879528989</v>
+        <v>-0.01259735878755919</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.08382693933964447</v>
+        <v>-0.08382693931321228</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.01228269279598</v>
+        <v>-3.012282688671081</v>
       </c>
       <c r="J31" t="n">
-        <v>0.122458241767947</v>
+        <v>0.1224582417687085</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2713894351042915</v>
+        <v>0.2713894351035588</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2977385538742395</v>
+        <v>0.2977385538738849</v>
       </c>
       <c r="M31" t="n">
-        <v>1.315076253195022</v>
+        <v>1.315076253194683</v>
       </c>
       <c r="N31" t="n">
         <v>38</v>
@@ -2029,31 +2029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>1.461825734809545</v>
+        <v>1.461825734811915</v>
       </c>
       <c r="F32" t="n">
-        <v>2.324860323182422</v>
+        <v>2.324860323181426</v>
       </c>
       <c r="G32" t="n">
-        <v>0.003337702838621226</v>
+        <v>0.003337702922692642</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07296431948935833</v>
+        <v>0.0729643194788423</v>
       </c>
       <c r="I32" t="n">
-        <v>1.040832713695448</v>
+        <v>1.040832629304716</v>
       </c>
       <c r="J32" t="n">
-        <v>0.161623376311955</v>
+        <v>0.1616233763082643</v>
       </c>
       <c r="K32" t="n">
-        <v>0.32854123229613</v>
+        <v>0.3285412322980918</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3661440387185561</v>
+        <v>0.3661440387186871</v>
       </c>
       <c r="M32" t="n">
-        <v>2.295847134549411</v>
+        <v>2.29584713454839</v>
       </c>
       <c r="N32" t="n">
         <v>51</v>
@@ -2079,31 +2079,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>1.445097474707036</v>
+        <v>1.445097474708514</v>
       </c>
       <c r="F33" t="n">
-        <v>2.330647960218716</v>
+        <v>2.330647960217354</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04693217242618175</v>
+        <v>0.04693217246477843</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01444463568753918</v>
+        <v>0.01444463562887677</v>
       </c>
       <c r="I33" t="n">
-        <v>1.430913065121811</v>
+        <v>1.43091298073068</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2653619905653324</v>
+        <v>0.2653619905670296</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3234028660326954</v>
+        <v>0.3234028660328506</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4183376624151322</v>
+        <v>0.4183376624163287</v>
       </c>
       <c r="M33" t="n">
-        <v>2.292796003720502</v>
+        <v>2.292796003718899</v>
       </c>
       <c r="N33" t="n">
         <v>49</v>
@@ -2129,31 +2129,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>1.544784857483251</v>
+        <v>1.544784857484869</v>
       </c>
       <c r="F34" t="n">
-        <v>2.443433538044551</v>
+        <v>2.443433538044029</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09599059914478403</v>
+        <v>0.09599059916365604</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.03118002367807549</v>
+        <v>-0.03118002372411866</v>
       </c>
       <c r="I34" t="n">
-        <v>1.284354689578516</v>
+        <v>1.284354605189788</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1870268154399763</v>
+        <v>0.1870268154413136</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2111351628062281</v>
+        <v>0.2111351628102494</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2820586582022105</v>
+        <v>0.2820586582061073</v>
       </c>
       <c r="M34" t="n">
-        <v>2.427099167354741</v>
+        <v>2.427099167353763</v>
       </c>
       <c r="N34" t="n">
         <v>47</v>
@@ -2179,31 +2179,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5448200620140491</v>
+        <v>0.544820061693017</v>
       </c>
       <c r="F35" t="n">
-        <v>1.061326757500061</v>
+        <v>1.06132675715501</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2217916041252579</v>
+        <v>-0.2217916045214565</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07816371104871678</v>
+        <v>0.07816370940560091</v>
       </c>
       <c r="I35" t="n">
-        <v>6.815229103071873</v>
+        <v>6.815228082492366</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1431172134197098</v>
+        <v>0.1431172134654668</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3103614676924223</v>
+        <v>0.3103614673993211</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3417700651098881</v>
+        <v>0.3417700648628839</v>
       </c>
       <c r="M35" t="n">
-        <v>1.00479237098036</v>
+        <v>1.004792370699908</v>
       </c>
       <c r="N35" t="n">
         <v>37</v>
@@ -2229,31 +2229,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.539607237530901</v>
+        <v>0.5396072373766354</v>
       </c>
       <c r="F36" t="n">
-        <v>1.051381441531638</v>
+        <v>1.051381441331049</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2167871616542811</v>
+        <v>-0.216787161859088</v>
       </c>
       <c r="H36" t="n">
-        <v>0.006765248869839979</v>
+        <v>0.006765247194323365</v>
       </c>
       <c r="I36" t="n">
-        <v>6.711181918720941</v>
+        <v>6.711180898030875</v>
       </c>
       <c r="J36" t="n">
-        <v>0.09958727692497669</v>
+        <v>0.09958727714210577</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2955925310681164</v>
+        <v>0.2955925307793675</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3119175694772376</v>
+        <v>0.3119175692729249</v>
       </c>
       <c r="M36" t="n">
-        <v>1.004046993645498</v>
+        <v>1.004046993498959</v>
       </c>
       <c r="N36" t="n">
         <v>36</v>
@@ -2279,31 +2279,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5366720155152035</v>
+        <v>0.5366720152805113</v>
       </c>
       <c r="F37" t="n">
-        <v>1.089606114408799</v>
+        <v>1.089606114142321</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.2236365224662222</v>
+        <v>-0.2236365224766814</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05466534438181725</v>
+        <v>0.05466534233238463</v>
       </c>
       <c r="I37" t="n">
-        <v>6.752159160432713</v>
+        <v>6.752158139810649</v>
       </c>
       <c r="J37" t="n">
-        <v>0.09718927066647789</v>
+        <v>0.09718927091702227</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3140365606510452</v>
+        <v>0.3140365602800169</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3287319816479977</v>
+        <v>0.3287319813676288</v>
       </c>
       <c r="M37" t="n">
-        <v>1.038834331738601</v>
+        <v>1.038834331547837</v>
       </c>
       <c r="N37" t="n">
         <v>35</v>
@@ -2329,31 +2329,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4158223952648726</v>
+        <v>0.415822395010189</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9530798923905272</v>
+        <v>0.9530798925394555</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2741606599889224</v>
+        <v>-0.2741606607839344</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.04889728470283217</v>
+        <v>-0.04889727903855601</v>
       </c>
       <c r="I38" t="n">
-        <v>11.89413585600216</v>
+        <v>11.89413778406321</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2281967493101363</v>
+        <v>0.2281967482851089</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2150975213556625</v>
+        <v>0.2150975228205208</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3135932079766124</v>
+        <v>0.3135932082354811</v>
       </c>
       <c r="M38" t="n">
-        <v>0.9000114339218899</v>
+        <v>0.9000114339892717</v>
       </c>
       <c r="N38" t="n">
         <v>37</v>
@@ -2379,31 +2379,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3573433166115965</v>
+        <v>0.357343316448935</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8726712435732547</v>
+        <v>0.8726712437136886</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2545877140580046</v>
+        <v>-0.2545877145094551</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.06080567545660642</v>
+        <v>-0.06080567051628805</v>
       </c>
       <c r="I39" t="n">
-        <v>11.92646102804081</v>
+        <v>11.92646295606412</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2357657214544282</v>
+        <v>0.2357657206247517</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2130839895837913</v>
+        <v>0.2130839908750531</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3177896506022062</v>
+        <v>0.3177896508524911</v>
       </c>
       <c r="M39" t="n">
-        <v>0.812751399463473</v>
+        <v>0.8127513995163782</v>
       </c>
       <c r="N39" t="n">
         <v>36</v>
@@ -2429,31 +2429,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4248504697930364</v>
+        <v>0.4248504697103148</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9696488088355817</v>
+        <v>0.969648808933985</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.3209056830883696</v>
+        <v>-0.3209056841669167</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02468566673212536</v>
+        <v>-0.02468566191447508</v>
       </c>
       <c r="I40" t="n">
-        <v>11.83403763562628</v>
+        <v>11.83403956380349</v>
       </c>
       <c r="J40" t="n">
-        <v>0.244121722221343</v>
+        <v>0.2441217211491101</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2115648998993275</v>
+        <v>0.2115649013055892</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3230404342024804</v>
+        <v>0.3230404343131794</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9142558123121689</v>
+        <v>0.9142558123774616</v>
       </c>
       <c r="N40" t="n">
         <v>40</v>
@@ -2479,31 +2479,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3682700089930733</v>
+        <v>0.3682700089929209</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9024773643822425</v>
+        <v>0.9024773643818987</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.2655439956288319</v>
+        <v>-0.2655439956322994</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.05552546681673221</v>
+        <v>-0.05552546681116155</v>
       </c>
       <c r="I41" t="n">
-        <v>16.01687419724815</v>
+        <v>16.0168741998557</v>
       </c>
       <c r="J41" t="n">
-        <v>0.315752775071335</v>
+        <v>0.3157527750689538</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2803782028505806</v>
+        <v>0.2803782028526113</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4222697616441063</v>
+        <v>0.4222697616436741</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7975924031881537</v>
+        <v>0.7975924031880456</v>
       </c>
       <c r="N41" t="n">
         <v>40</v>
@@ -2529,31 +2529,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3556285329905395</v>
+        <v>0.3556285329905421</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8781905020896625</v>
+        <v>0.8781905020895651</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2964404876615276</v>
+        <v>-0.2964404876645403</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.09627206745608419</v>
+        <v>-0.09627206745199146</v>
       </c>
       <c r="I42" t="n">
-        <v>15.91135495822322</v>
+        <v>15.91135496083111</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3099103288460445</v>
+        <v>0.3099103288439886</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2813596607424138</v>
+        <v>0.2813596607441141</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4185781535371257</v>
+        <v>0.4185781535367465</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7720174138853116</v>
+        <v>0.7720174138852332</v>
       </c>
       <c r="N42" t="n">
         <v>40</v>
@@ -2579,31 +2579,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3935228017480896</v>
+        <v>0.3935228017478421</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9063009484019244</v>
+        <v>0.9063009484017104</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2837132528747475</v>
+        <v>-0.2837132528777602</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.05551758816409347</v>
+        <v>-0.05551758815789753</v>
       </c>
       <c r="I43" t="n">
-        <v>16.0386317991413</v>
+        <v>16.03863180174895</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3184610626597617</v>
+        <v>0.3184610626575856</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2850740623069232</v>
+        <v>0.2850740623091766</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4274162718364337</v>
+        <v>0.4274162718363153</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7991850471847466</v>
+        <v>0.7991850471845746</v>
       </c>
       <c r="N43" t="n">
         <v>41</v>
@@ -2629,31 +2629,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4241608207596129</v>
+        <v>0.4241608209105242</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9923463831964608</v>
+        <v>0.992346383091874</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.2664594256335704</v>
+        <v>-0.2664594273123839</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1246996590854224</v>
+        <v>-0.124699657691167</v>
       </c>
       <c r="I44" t="n">
-        <v>20.73116637534779</v>
+        <v>20.731167216313</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4036889748717435</v>
+        <v>0.4036889740882318</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4185999198577131</v>
+        <v>0.4185999202956189</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5815416419637401</v>
+        <v>0.5815416417350588</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8040899594604795</v>
+        <v>0.8040899594967454</v>
       </c>
       <c r="N44" t="n">
         <v>43</v>
@@ -2679,31 +2679,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3916414030677512</v>
+        <v>0.3916414032626687</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9798158912569614</v>
+        <v>0.9798158911503232</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.2902343677863541</v>
+        <v>-0.290234369464315</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.1539420454274136</v>
+        <v>-0.1539420440048502</v>
       </c>
       <c r="I45" t="n">
-        <v>20.76172048938489</v>
+        <v>20.76172133043438</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4093665421263827</v>
+        <v>0.4093665413306911</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4115099946382519</v>
+        <v>0.4115099950930297</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5804493444734738</v>
+        <v>0.5804493442347212</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7893780711800733</v>
+        <v>0.7893780712232487</v>
       </c>
       <c r="N45" t="n">
         <v>43</v>
@@ -2729,31 +2729,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3875883223716939</v>
+        <v>0.3875883225631652</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9767768601612156</v>
+        <v>0.9767768600585834</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.2469822990840953</v>
+        <v>-0.2469823008132153</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.1351223150059582</v>
+        <v>-0.1351223135707755</v>
       </c>
       <c r="I46" t="n">
-        <v>20.76111591298934</v>
+        <v>20.76111675393438</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4136433751751507</v>
+        <v>0.4136433743597062</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4162067956191323</v>
+        <v>0.4162067960786114</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5867954827244639</v>
+        <v>0.5867954824755444</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7808739309263466</v>
+        <v>0.7808739309851179</v>
       </c>
       <c r="N46" t="n">
         <v>43</v>
@@ -2779,31 +2779,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4425192300021846</v>
+        <v>0.4425192300014844</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9975757963321952</v>
+        <v>0.9975757963322004</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.3650785886590597</v>
+        <v>-0.365078588650988</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.07622941636640235</v>
+        <v>-0.07622941637168879</v>
       </c>
       <c r="I47" t="n">
-        <v>26.08485379814766</v>
+        <v>26.08485379399704</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4143930820494744</v>
+        <v>0.4143930820528609</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3517847525893845</v>
+        <v>0.3517847525869966</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5435753292827379</v>
+        <v>0.5435753292837741</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8364707590962127</v>
+        <v>0.836470759095575</v>
       </c>
       <c r="N47" t="n">
         <v>37</v>
@@ -2829,31 +2829,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4599437298530575</v>
+        <v>0.4599437298520127</v>
       </c>
       <c r="F48" t="n">
-        <v>1.033929150909098</v>
+        <v>1.033929150908915</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.3635107286929156</v>
+        <v>-0.3635107286847301</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.08962156844756919</v>
+        <v>-0.08962156845279878</v>
       </c>
       <c r="I48" t="n">
-        <v>26.06227476698796</v>
+        <v>26.06227476283727</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4170909969706924</v>
+        <v>0.4170909969741498</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3634395349230573</v>
+        <v>0.3634395349207736</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5532207473505438</v>
+        <v>0.5532207473516503</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8734736938227254</v>
+        <v>0.8734736938219926</v>
       </c>
       <c r="N48" t="n">
         <v>36</v>
@@ -2879,31 +2879,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.41639500250034</v>
+        <v>0.4163950024991714</v>
       </c>
       <c r="F49" t="n">
-        <v>1.002162521798428</v>
+        <v>1.002162521798164</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.3282528347466496</v>
+        <v>-0.3282528347390894</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.101768988412914</v>
+        <v>-0.1017689884172341</v>
       </c>
       <c r="I49" t="n">
-        <v>26.20490483428628</v>
+        <v>26.20490483013578</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3666584463110398</v>
+        <v>0.3666584463140995</v>
       </c>
       <c r="K49" t="n">
-        <v>0.374883445374419</v>
+        <v>0.3748834453722892</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5243815537059067</v>
+        <v>0.5243815537065235</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8540220759619886</v>
+        <v>0.854022075961305</v>
       </c>
       <c r="N49" t="n">
         <v>37</v>
@@ -2929,31 +2929,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4292002897462471</v>
+        <v>0.4292002900727933</v>
       </c>
       <c r="F50" t="n">
-        <v>1.077437143773586</v>
+        <v>1.077437143052941</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.3754287958522013</v>
+        <v>-0.3754288077675483</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1012226387281316</v>
+        <v>-0.1012226271377585</v>
       </c>
       <c r="I50" t="n">
-        <v>31.10323385611433</v>
+        <v>31.10324048331438</v>
       </c>
       <c r="J50" t="n">
-        <v>0.377491642257082</v>
+        <v>0.3774916361518054</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4149194347673363</v>
+        <v>0.4149194396342902</v>
       </c>
       <c r="L50" t="n">
-        <v>0.5609439163780944</v>
+        <v>0.5609439158694927</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9198982125547034</v>
+        <v>0.9198982120207126</v>
       </c>
       <c r="N50" t="n">
         <v>34</v>
@@ -2979,31 +2979,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4700418398196577</v>
+        <v>0.4700418405550091</v>
       </c>
       <c r="F51" t="n">
-        <v>1.154018187442263</v>
+        <v>1.154018186707842</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.4283578815274041</v>
+        <v>-0.4283578932951286</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.08755443978134281</v>
+        <v>-0.08755443079513725</v>
       </c>
       <c r="I51" t="n">
-        <v>31.04301286884283</v>
+        <v>31.04301949664548</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3976595614497474</v>
+        <v>0.3976595561487947</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4207087417905464</v>
+        <v>0.4207087457021637</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5789032494565824</v>
+        <v>0.5789032486579637</v>
       </c>
       <c r="M51" t="n">
-        <v>0.9983130795076497</v>
+        <v>0.9983130791218697</v>
       </c>
       <c r="N51" t="n">
         <v>36</v>
@@ -3029,31 +3029,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.433321896013694</v>
+        <v>0.4333218953336103</v>
       </c>
       <c r="F52" t="n">
-        <v>1.077483912520672</v>
+        <v>1.077483911421778</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.332550308598627</v>
+        <v>-0.3325503198627757</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.1331568553092097</v>
+        <v>-0.1331568409412967</v>
       </c>
       <c r="I52" t="n">
-        <v>31.16426159434953</v>
+        <v>31.16426822129589</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4161688244847594</v>
+        <v>0.4161688180740343</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4160690313504241</v>
+        <v>0.4160690366100506</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5884810356518778</v>
+        <v>0.5884810348369388</v>
       </c>
       <c r="M52" t="n">
-        <v>0.9025860914167984</v>
+        <v>0.9025860906363959</v>
       </c>
       <c r="N52" t="n">
         <v>35</v>
@@ -3079,31 +3079,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4395498482898758</v>
+        <v>0.4395498474255935</v>
       </c>
       <c r="F53" t="n">
-        <v>1.213973319362677</v>
+        <v>1.213973318783185</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.377832730616035</v>
+        <v>-0.3778326952102589</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.127476322322309</v>
+        <v>-0.1274763866622948</v>
       </c>
       <c r="I53" t="n">
-        <v>36.45560567957291</v>
+        <v>36.45558683053932</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4161887547059705</v>
+        <v>0.4161887729092539</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5049845455105454</v>
+        <v>0.5049845268321255</v>
       </c>
       <c r="L53" t="n">
-        <v>0.6543870954933315</v>
+        <v>0.6543870926566142</v>
       </c>
       <c r="M53" t="n">
-        <v>1.022501222188078</v>
+        <v>1.022501223315497</v>
       </c>
       <c r="N53" t="n">
         <v>34</v>
@@ -3129,31 +3129,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4484312570076356</v>
+        <v>0.4484312567024241</v>
       </c>
       <c r="F54" t="n">
-        <v>1.234958754905521</v>
+        <v>1.234958756858686</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.3088251056527156</v>
+        <v>-0.3088250716163543</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.2252458909510437</v>
+        <v>-0.2252459233287141</v>
       </c>
       <c r="I54" t="n">
-        <v>36.13697920776055</v>
+        <v>36.1369603581698</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4755671492752428</v>
+        <v>0.4755671623773615</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4736301880350359</v>
+        <v>0.4736301773196507</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6711852713579795</v>
+        <v>0.6711852730800189</v>
       </c>
       <c r="M54" t="n">
-        <v>1.036645290265594</v>
+        <v>1.036645291477471</v>
       </c>
       <c r="N54" t="n">
         <v>32</v>
@@ -3179,31 +3179,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.53316122759069</v>
+        <v>0.5331612291959298</v>
       </c>
       <c r="F55" t="n">
-        <v>1.263257629013064</v>
+        <v>1.263257631785708</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.4034573404653656</v>
+        <v>-0.4034573139688291</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.1081495695899548</v>
+        <v>-0.1081496263148551</v>
       </c>
       <c r="I55" t="n">
-        <v>36.38562596357408</v>
+        <v>36.38560711404669</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4426887437417667</v>
+        <v>0.4426887578977441</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5104033377004235</v>
+        <v>0.5104033219113124</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6756366560299967</v>
+        <v>0.6756366533775017</v>
       </c>
       <c r="M55" t="n">
-        <v>1.067396339832709</v>
+        <v>1.067396344793229</v>
       </c>
       <c r="N55" t="n">
         <v>33</v>
@@ -3229,31 +3229,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3458677333810896</v>
+        <v>0.3458677333813346</v>
       </c>
       <c r="F56" t="n">
-        <v>1.099988253047545</v>
+        <v>1.099988253048289</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.4113870196127323</v>
+        <v>-0.4113870196094354</v>
       </c>
       <c r="H56" t="n">
-        <v>0.141720223833147</v>
+        <v>0.1417202238311006</v>
       </c>
       <c r="I56" t="n">
-        <v>40.63308038857772</v>
+        <v>40.63308038701978</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4878733543679955</v>
+        <v>0.4878733543688577</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4353235047970154</v>
+        <v>0.4353235047964243</v>
       </c>
       <c r="L56" t="n">
-        <v>0.6538554608864537</v>
+        <v>0.6538554608867035</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8845604519260958</v>
+        <v>0.8845604519266502</v>
       </c>
       <c r="N56" t="n">
         <v>19</v>
@@ -3279,31 +3279,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3942926478895241</v>
+        <v>0.3942926478895357</v>
       </c>
       <c r="F57" t="n">
-        <v>1.149574533400186</v>
+        <v>1.149574533400397</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3454334794764122</v>
+        <v>-0.34543347947141</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.08398227397862001</v>
+        <v>-0.08398227398282643</v>
       </c>
       <c r="I57" t="n">
-        <v>40.96235654382522</v>
+        <v>40.96235654226692</v>
       </c>
       <c r="J57" t="n">
-        <v>0.521413289100194</v>
+        <v>0.5214132891016727</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4896742339962166</v>
+        <v>0.489674233995515</v>
       </c>
       <c r="L57" t="n">
-        <v>0.7152990098483738</v>
+        <v>0.7152990098489714</v>
       </c>
       <c r="M57" t="n">
-        <v>0.8999271828052341</v>
+        <v>0.8999271828051989</v>
       </c>
       <c r="N57" t="n">
         <v>21</v>
@@ -3329,31 +3329,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4564364846356136</v>
+        <v>0.4564364846356447</v>
       </c>
       <c r="F58" t="n">
-        <v>1.293042340115424</v>
+        <v>1.293042340115714</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3683469643009403</v>
+        <v>-0.3683469642971318</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.05078136447207271</v>
+        <v>-0.05078136447554016</v>
       </c>
       <c r="I58" t="n">
-        <v>40.93413782937648</v>
+        <v>40.9341378278182</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5206691299732972</v>
+        <v>0.5206691299743694</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5149376782010487</v>
+        <v>0.5149376782002948</v>
       </c>
       <c r="L58" t="n">
-        <v>0.7322958113619367</v>
+        <v>0.7322958113621688</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06569289103047</v>
+        <v>1.065692891030541</v>
       </c>
       <c r="N58" t="n">
         <v>19</v>
@@ -3379,31 +3379,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3221379294152888</v>
+        <v>0.3221379291196337</v>
       </c>
       <c r="F59" t="n">
-        <v>1.10684498022063</v>
+        <v>1.106844982998979</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.489351061670618</v>
+        <v>-0.4893510774700189</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.2588717269075573</v>
+        <v>-0.2588717209898164</v>
       </c>
       <c r="I59" t="n">
-        <v>45.90655578066716</v>
+        <v>45.90656877796354</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3513037703356284</v>
+        <v>0.3513037674490516</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6195023728456249</v>
+        <v>0.6195023751753904</v>
       </c>
       <c r="L59" t="n">
-        <v>0.7121780177830452</v>
+        <v>0.7121780183857457</v>
       </c>
       <c r="M59" t="n">
-        <v>0.847294683817816</v>
+        <v>0.8472946869409488</v>
       </c>
       <c r="N59" t="n">
         <v>14</v>
@@ -3429,31 +3429,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4140370354553981</v>
+        <v>0.414037035258872</v>
       </c>
       <c r="F60" t="n">
-        <v>1.115288309375559</v>
+        <v>1.115288307862883</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.273481425605155</v>
+        <v>-0.2734814637190084</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.5284965678430922</v>
+        <v>-0.5284965720559853</v>
       </c>
       <c r="I60" t="n">
-        <v>45.52726926248779</v>
+        <v>45.52728225973176</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2728430845236465</v>
+        <v>0.2728430786181825</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6651631696721241</v>
+        <v>0.665163170775252</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7189474188427444</v>
+        <v>0.7189474176222033</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8526327591460127</v>
+        <v>0.8526327581966281</v>
       </c>
       <c r="N60" t="n">
         <v>14</v>
@@ -3479,31 +3479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5294139478460926</v>
+        <v>0.5294139523707015</v>
       </c>
       <c r="F61" t="n">
-        <v>1.290968223439732</v>
+        <v>1.290968227152035</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3441620823938365</v>
+        <v>-0.3441621040586256</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.2526454400558009</v>
+        <v>-0.2526454511111069</v>
       </c>
       <c r="I61" t="n">
-        <v>45.89432145101669</v>
+        <v>45.89433444416223</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3570512743603803</v>
+        <v>0.3570512726970091</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5785515067475006</v>
+        <v>0.5785515052373915</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6798584106136915</v>
+        <v>0.6798584084550293</v>
       </c>
       <c r="M61" t="n">
-        <v>1.097447718777063</v>
+        <v>1.097447724481288</v>
       </c>
       <c r="N61" t="n">
         <v>14</v>
@@ -3529,31 +3529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5375724801044862</v>
+        <v>0.5375724801030144</v>
       </c>
       <c r="F62" t="n">
-        <v>1.168083228898403</v>
+        <v>1.168083228898453</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1568388862131087</v>
+        <v>-0.1568388862112329</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.376853469611774</v>
+        <v>-0.3768534696214942</v>
       </c>
       <c r="I62" t="n">
-        <v>51.73063148845596</v>
+        <v>51.7306314700595</v>
       </c>
       <c r="J62" t="n">
-        <v>0.4903238743815854</v>
+        <v>0.4903238743819151</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6335469395703062</v>
+        <v>0.6335469395682972</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8011237272902795</v>
+        <v>0.8011237272888925</v>
       </c>
       <c r="M62" t="n">
-        <v>0.850070116641227</v>
+        <v>0.8500701166425422</v>
       </c>
       <c r="N62" t="n">
         <v>13</v>
@@ -3579,31 +3579,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5340275235646206</v>
+        <v>0.5340275235526785</v>
       </c>
       <c r="F63" t="n">
-        <v>1.388806008965261</v>
+        <v>1.388806008950607</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3066921380374765</v>
+        <v>-0.3066921379976861</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.04381372382925974</v>
+        <v>-0.04381372382704285</v>
       </c>
       <c r="I63" t="n">
-        <v>51.09227337037213</v>
+        <v>51.09227335198031</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4292565134744535</v>
+        <v>0.429256513470127</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4989978906097194</v>
+        <v>0.4989978906090801</v>
       </c>
       <c r="L63" t="n">
-        <v>0.6582249229505012</v>
+        <v>0.6582249229471949</v>
       </c>
       <c r="M63" t="n">
-        <v>1.222915402366324</v>
+        <v>1.222915402351477</v>
       </c>
       <c r="N63" t="n">
         <v>12</v>
@@ -3629,31 +3629,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4526139682892834</v>
+        <v>0.4526139682903437</v>
       </c>
       <c r="F64" t="n">
-        <v>1.242081392390452</v>
+        <v>1.24208139238352</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1462758250216325</v>
+        <v>-0.146275824986219</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.2517331008395445</v>
+        <v>-0.2517331008485826</v>
       </c>
       <c r="I64" t="n">
-        <v>51.60984680518852</v>
+        <v>51.60984678679646</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3082193490147809</v>
+        <v>0.3082193490224815</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5706611986603031</v>
+        <v>0.5706611986567287</v>
       </c>
       <c r="L64" t="n">
-        <v>0.6485779604361448</v>
+        <v>0.6485779604366592</v>
       </c>
       <c r="M64" t="n">
-        <v>1.059298265154453</v>
+        <v>1.059298265145945</v>
       </c>
       <c r="N64" t="n">
         <v>12</v>
